--- a/docs/data/metadata.xlsx
+++ b/docs/data/metadata.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakamura/git/lda/docs/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D370C6E7-2E09-5041-B3C8-284EEC1D24F2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -3284,1353 +3290,1353 @@
     <t>http://purl.org/dc/terms/relation</t>
   </si>
   <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_01_001.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_01_002.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_01_003.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_01_004.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_01_005.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_01_006.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_01_007.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_01_008.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_01_009.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_01_010.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_01_011.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_001.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_002.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_003.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_004.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_005.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_006.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_007.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_008.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_009.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_010.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_011.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_012.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_013.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_014.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_015.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_016.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_017.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_018.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_019.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_020.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_021.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_022.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_023.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_024.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_025.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_026.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_027.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_028.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_029.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_030.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_031.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_032.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_033.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_034.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_035.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_036.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_037.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_038.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_039.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_040.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_041.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_042.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_043.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_044.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_045.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_046.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_047.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_048.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_049.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_050.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_001.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_002.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_003.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_004.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_005.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_006.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_007.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_008.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_009.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_010.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_011.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_012.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_013.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_014.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_015.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_016.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_017.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_018.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_019.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_020.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_021.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_022.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_023.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_024.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_025.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_026.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_027.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_028.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_029.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_030.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_031.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_032.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_033.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_034.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_035.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_036.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_037.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_038.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_039.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_040.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_041.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_042.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_001.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_002.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_003.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_004.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_005.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_006.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_007.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_008.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_009.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_010.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_011.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_012.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_013.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_014.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_015.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_016.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_017.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_018.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_019.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_020.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_021.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_022.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_023.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_024.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_025.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_026.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_027.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_028.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_029.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_030.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_031.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_032.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_033.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_034.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_035.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_036.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_037.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_038.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_039.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_040.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_041.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_042.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_043.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_044.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_045.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_046.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_047.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_048.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_049.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_001.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_002.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_003.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_004.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_005.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_006.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_007.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_008.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_009.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_010.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_011.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_012.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_013.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_014.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_015.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_016.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_017.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_018.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_019.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_020.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_021.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_022.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_023.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_024.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_025.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_026.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_027.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_028.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_029.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_030.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_031.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_032.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_033.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_034.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_035.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_036.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_037.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_038.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_039.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_040.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_041.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_042.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_043.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_044.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_045.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_046.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_047.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_048.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_049.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_050.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_051.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_052.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_053.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_054.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_055.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_001.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_002.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_003.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_004.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_005.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_006.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_007.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_008.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_009.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_010.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_011.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_012.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_013.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_014.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_015.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_016.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_017.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_018.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_019.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_020.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_021.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_022.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_023.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_024.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_025.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_026.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_027.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_028.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_029.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_030.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_031.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_032.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_033.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_034.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_035.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_036.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_037.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_038.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_039.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_040.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_041.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_042.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_043.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_044.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_045.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_046.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_047.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_048.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_049.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_050.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_051.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_052.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_053.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_054.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_055.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_056.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_057.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_058.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_001.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_002.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_003.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_004.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_005.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_006.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_007.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_008.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_009.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_010.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_011.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_012.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_013.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_014.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_015.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_016.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_017.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_018.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_019.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_020.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_021.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_022.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_023.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_024.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_025.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_026.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_027.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_028.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_029.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_030.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_031.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_032.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_033.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_034.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_035.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_036.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_037.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_038.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_039.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_040.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_041.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_042.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_043.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_044.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_045.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_046.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_047.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_048.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_049.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_050.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_051.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_052.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_053.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_054.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_001.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_002.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_003.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_004.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_005.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_006.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_007.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_008.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_009.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_010.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_011.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_012.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_013.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_014.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_015.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_016.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_017.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_018.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_019.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_020.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_021.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_022.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_023.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_024.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_025.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_026.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_027.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_028.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_029.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_030.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_031.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_032.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_033.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_034.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_035.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_036.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_037.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_038.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_039.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_040.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_041.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_042.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_043.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_044.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_045.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_046.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_001.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_002.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_003.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_004.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_005.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_006.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_007.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_008.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_009.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_010.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_011.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_012.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_013.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_014.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_015.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_016.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_017.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_018.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_019.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_020.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_021.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_022.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_023.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_024.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_025.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_026.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_027.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_028.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_029.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_030.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_031.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_032.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_033.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_034.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_035.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_036.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_037.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_038.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_039.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_001.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_002.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_003.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_004.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_005.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_006.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_007.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_008.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_009.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_010.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_011.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_012.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_013.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_014.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_015.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_016.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_017.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_018.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_019.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_020.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_021.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_022.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_023.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_024.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_025.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_026.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_027.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_028.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_029.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_030.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_031.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_032.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_033.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_034.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_035.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_036.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_037.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_038.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_039.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_040.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_041.json</t>
-  </si>
-  <si>
-    <t>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_042.json</t>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_01_001.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_01_002.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_01_003.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_01_004.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_01_005.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_01_006.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_01_007.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_01_008.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_01_009.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_01_010.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_01_011.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_001.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_002.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_003.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_004.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_005.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_006.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_007.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_008.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_009.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_010.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_011.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_012.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_013.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_014.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_015.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_016.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_017.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_018.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_019.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_020.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_021.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_022.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_023.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_024.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_025.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_026.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_027.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_028.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_029.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_030.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_031.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_032.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_033.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_034.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_035.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_036.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_037.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_038.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_039.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_040.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_041.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_042.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_043.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_044.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_045.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_046.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_047.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_048.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_049.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_050.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_001.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_002.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_003.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_004.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_005.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_006.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_007.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_008.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_009.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_010.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_011.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_012.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_013.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_014.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_015.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_016.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_017.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_018.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_019.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_020.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_021.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_022.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_023.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_024.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_025.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_026.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_027.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_028.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_029.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_030.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_031.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_032.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_033.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_034.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_035.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_036.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_037.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_038.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_039.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_040.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_041.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_042.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_001.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_002.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_003.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_004.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_005.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_006.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_007.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_008.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_009.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_010.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_011.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_012.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_013.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_014.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_015.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_016.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_017.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_018.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_019.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_020.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_021.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_022.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_023.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_024.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_025.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_026.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_027.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_028.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_029.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_030.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_031.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_032.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_033.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_034.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_035.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_036.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_037.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_038.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_039.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_040.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_041.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_042.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_043.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_044.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_045.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_046.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_047.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_048.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_049.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_001.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_002.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_003.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_004.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_005.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_006.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_007.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_008.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_009.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_010.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_011.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_012.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_013.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_014.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_015.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_016.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_017.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_018.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_019.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_020.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_021.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_022.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_023.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_024.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_025.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_026.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_027.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_028.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_029.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_030.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_031.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_032.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_033.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_034.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_035.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_036.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_037.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_038.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_039.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_040.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_041.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_042.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_043.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_044.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_045.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_046.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_047.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_048.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_049.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_050.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_051.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_052.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_053.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_054.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_055.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_001.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_002.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_003.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_004.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_005.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_006.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_007.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_008.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_009.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_010.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_011.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_012.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_013.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_014.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_015.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_016.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_017.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_018.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_019.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_020.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_021.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_022.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_023.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_024.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_025.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_026.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_027.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_028.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_029.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_030.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_031.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_032.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_033.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_034.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_035.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_036.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_037.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_038.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_039.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_040.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_041.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_042.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_043.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_044.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_045.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_046.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_047.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_048.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_049.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_050.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_051.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_052.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_053.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_054.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_055.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_056.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_057.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_058.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_001.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_002.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_003.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_004.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_005.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_006.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_007.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_008.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_009.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_010.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_011.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_012.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_013.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_014.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_015.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_016.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_017.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_018.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_019.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_020.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_021.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_022.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_023.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_024.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_025.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_026.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_027.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_028.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_029.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_030.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_031.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_032.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_033.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_034.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_035.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_036.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_037.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_038.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_039.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_040.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_041.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_042.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_043.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_044.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_045.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_046.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_047.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_048.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_049.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_050.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_051.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_052.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_053.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_054.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_001.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_002.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_003.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_004.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_005.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_006.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_007.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_008.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_009.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_010.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_011.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_012.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_013.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_014.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_015.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_016.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_017.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_018.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_019.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_020.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_021.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_022.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_023.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_024.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_025.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_026.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_027.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_028.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_029.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_030.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_031.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_032.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_033.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_034.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_035.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_036.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_037.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_038.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_039.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_040.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_041.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_042.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_043.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_044.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_045.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_046.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_001.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_002.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_003.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_004.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_005.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_006.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_007.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_008.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_009.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_010.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_011.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_012.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_013.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_014.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_015.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_016.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_017.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_018.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_019.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_020.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_021.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_022.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_023.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_024.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_025.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_026.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_027.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_028.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_029.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_030.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_031.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_032.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_033.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_034.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_035.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_036.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_037.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_038.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_039.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_001.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_002.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_003.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_004.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_005.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_006.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_007.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_008.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_009.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_010.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_011.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_012.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_013.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_014.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_015.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_016.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_017.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_018.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_019.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_020.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_021.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_022.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_023.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_024.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_025.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_026.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_027.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_028.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_029.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_030.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_031.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_032.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_033.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_034.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_035.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_036.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_037.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_038.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_039.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_040.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_041.json</t>
+  </si>
+  <si>
+    <t>http://www.kanzaki.com/works/2016/pub/image-annotator?u=?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_042.json</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4640,6 +4646,13 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4671,16 +4684,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4722,7 +4743,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4754,9 +4775,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4788,6 +4827,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4963,12 +5020,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U448"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
@@ -5035,7 +5094,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" ht="15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5100,7 +5159,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" ht="15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5114,7 +5173,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" ht="15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5131,7 +5190,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" ht="15">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5157,7 +5216,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" ht="15">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5180,7 +5239,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" ht="15">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5203,7 +5262,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" ht="15">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5229,7 +5288,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" ht="15">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -5252,7 +5311,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" ht="15">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -5269,7 +5328,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" ht="15">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -5286,7 +5345,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" ht="15">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -5309,7 +5368,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" ht="15">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -5329,7 +5388,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" ht="15">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -5346,7 +5405,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" ht="15">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -5360,7 +5419,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" ht="15">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -5374,7 +5433,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" ht="15">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -5391,7 +5450,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" ht="15">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -5405,7 +5464,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" ht="15">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -5422,7 +5481,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" ht="15">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -5439,7 +5498,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" ht="15">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -5456,7 +5515,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" ht="15">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -5473,7 +5532,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" ht="15">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -5490,7 +5549,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" ht="15">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -5507,7 +5566,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" ht="15">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -5524,7 +5583,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" ht="15">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -5541,7 +5600,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" ht="15">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -5558,7 +5617,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" ht="15">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -5575,7 +5634,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" ht="15">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -5592,7 +5651,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" ht="15">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -5609,7 +5668,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" ht="15">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -5626,7 +5685,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" ht="15">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -5643,7 +5702,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" ht="15">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -5660,7 +5719,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" ht="15">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -5677,7 +5736,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" ht="15">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -5694,7 +5753,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" ht="15">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -5711,7 +5770,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:21" ht="15">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -5728,7 +5787,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:21" ht="15">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -5745,7 +5804,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:21" ht="15">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -5765,7 +5824,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:21" ht="15">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -5779,7 +5838,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:21" ht="15">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -5793,7 +5852,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42" spans="1:21" ht="15">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -5810,7 +5869,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43" spans="1:21" ht="15">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -5824,7 +5883,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44" spans="1:21" ht="15">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -5838,7 +5897,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:21" ht="15">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -5852,7 +5911,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:21" ht="15">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -5869,7 +5928,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47" spans="1:21" ht="15">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -5883,7 +5942,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:21" ht="15">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -5897,7 +5956,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="49" spans="1:21">
+    <row r="49" spans="1:21" ht="15">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -5911,7 +5970,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="50" spans="1:21">
+    <row r="50" spans="1:21" ht="15">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -5925,7 +5984,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="51" spans="1:21">
+    <row r="51" spans="1:21" ht="15">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -5939,7 +5998,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="52" spans="1:21">
+    <row r="52" spans="1:21" ht="15">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -5953,7 +6012,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="53" spans="1:21">
+    <row r="53" spans="1:21" ht="15">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -5967,7 +6026,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="54" spans="1:21">
+    <row r="54" spans="1:21" ht="15">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -5984,7 +6043,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="55" spans="1:21">
+    <row r="55" spans="1:21" ht="15">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -5998,7 +6057,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="56" spans="1:21">
+    <row r="56" spans="1:21" ht="15">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -6015,7 +6074,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="57" spans="1:21">
+    <row r="57" spans="1:21" ht="15">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -6029,7 +6088,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="58" spans="1:21">
+    <row r="58" spans="1:21" ht="15">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -6043,7 +6102,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="59" spans="1:21">
+    <row r="59" spans="1:21" ht="15">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -6057,7 +6116,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="60" spans="1:21">
+    <row r="60" spans="1:21" ht="15">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -6071,7 +6130,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="61" spans="1:21">
+    <row r="61" spans="1:21" ht="15">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -6085,7 +6144,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="62" spans="1:21">
+    <row r="62" spans="1:21" ht="15">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -6099,7 +6158,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="63" spans="1:21">
+    <row r="63" spans="1:21" ht="15">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -6113,7 +6172,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="64" spans="1:21">
+    <row r="64" spans="1:21" ht="15">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -6127,7 +6186,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="65" spans="1:21">
+    <row r="65" spans="1:21" ht="15">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -6141,7 +6200,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="66" spans="1:21">
+    <row r="66" spans="1:21" ht="15">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -6155,7 +6214,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="67" spans="1:21">
+    <row r="67" spans="1:21" ht="15">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -6172,7 +6231,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="68" spans="1:21">
+    <row r="68" spans="1:21" ht="15">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -6186,7 +6245,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="69" spans="1:21">
+    <row r="69" spans="1:21" ht="15">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -6200,7 +6259,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="70" spans="1:21">
+    <row r="70" spans="1:21" ht="15">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -6214,7 +6273,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="71" spans="1:21">
+    <row r="71" spans="1:21" ht="15">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -6228,7 +6287,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="72" spans="1:21">
+    <row r="72" spans="1:21" ht="15">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -6242,7 +6301,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="73" spans="1:21">
+    <row r="73" spans="1:21" ht="15">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -6256,7 +6315,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="74" spans="1:21">
+    <row r="74" spans="1:21" ht="15">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -6270,7 +6329,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="75" spans="1:21">
+    <row r="75" spans="1:21" ht="15">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -6284,7 +6343,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="76" spans="1:21">
+    <row r="76" spans="1:21" ht="15">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -6298,7 +6357,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="77" spans="1:21">
+    <row r="77" spans="1:21" ht="15">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -6312,7 +6371,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="78" spans="1:21">
+    <row r="78" spans="1:21" ht="15">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -6326,7 +6385,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="79" spans="1:21">
+    <row r="79" spans="1:21" ht="15">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -6340,7 +6399,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="80" spans="1:21">
+    <row r="80" spans="1:21" ht="15">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -6354,7 +6413,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="81" spans="1:21">
+    <row r="81" spans="1:21" ht="15">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -6371,7 +6430,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="82" spans="1:21">
+    <row r="82" spans="1:21" ht="15">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -6385,7 +6444,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="83" spans="1:21">
+    <row r="83" spans="1:21" ht="15">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -6399,7 +6458,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="84" spans="1:21">
+    <row r="84" spans="1:21" ht="15">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -6413,7 +6472,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="85" spans="1:21">
+    <row r="85" spans="1:21" ht="15">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -6430,7 +6489,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="86" spans="1:21">
+    <row r="86" spans="1:21" ht="15">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -6447,7 +6506,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="87" spans="1:21">
+    <row r="87" spans="1:21" ht="15">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -6464,7 +6523,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="88" spans="1:21">
+    <row r="88" spans="1:21" ht="15">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -6478,7 +6537,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="89" spans="1:21">
+    <row r="89" spans="1:21" ht="15">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -6492,7 +6551,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="90" spans="1:21">
+    <row r="90" spans="1:21" ht="15">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -6506,7 +6565,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="91" spans="1:21">
+    <row r="91" spans="1:21" ht="15">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -6520,7 +6579,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="92" spans="1:21">
+    <row r="92" spans="1:21" ht="15">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -6534,7 +6593,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="93" spans="1:21">
+    <row r="93" spans="1:21" ht="15">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -6548,7 +6607,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="94" spans="1:21">
+    <row r="94" spans="1:21" ht="15">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -6562,7 +6621,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="95" spans="1:21">
+    <row r="95" spans="1:21" ht="15">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -6576,7 +6635,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="96" spans="1:21">
+    <row r="96" spans="1:21" ht="15">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -6590,7 +6649,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="97" spans="1:21">
+    <row r="97" spans="1:21" ht="15">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -6604,7 +6663,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="98" spans="1:21">
+    <row r="98" spans="1:21" ht="15">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -6618,7 +6677,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="99" spans="1:21">
+    <row r="99" spans="1:21" ht="15">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -6632,7 +6691,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="100" spans="1:21">
+    <row r="100" spans="1:21" ht="15">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -6646,7 +6705,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="101" spans="1:21">
+    <row r="101" spans="1:21" ht="15">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -6660,7 +6719,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="102" spans="1:21">
+    <row r="102" spans="1:21" ht="15">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -6674,7 +6733,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="103" spans="1:21">
+    <row r="103" spans="1:21" ht="15">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -6688,7 +6747,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="104" spans="1:21">
+    <row r="104" spans="1:21" ht="15">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -6702,7 +6761,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="105" spans="1:21">
+    <row r="105" spans="1:21" ht="15">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -6716,7 +6775,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="106" spans="1:21">
+    <row r="106" spans="1:21" ht="15">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -6730,7 +6789,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="107" spans="1:21">
+    <row r="107" spans="1:21" ht="15">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -6744,7 +6803,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="108" spans="1:21">
+    <row r="108" spans="1:21" ht="15">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -6758,7 +6817,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="109" spans="1:21">
+    <row r="109" spans="1:21" ht="15">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -6775,7 +6834,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="110" spans="1:21">
+    <row r="110" spans="1:21" ht="15">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -6789,7 +6848,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="111" spans="1:21">
+    <row r="111" spans="1:21" ht="15">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -6803,7 +6862,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="112" spans="1:21">
+    <row r="112" spans="1:21" ht="15">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -6817,7 +6876,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="113" spans="1:21">
+    <row r="113" spans="1:21" ht="15">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -6831,7 +6890,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="114" spans="1:21">
+    <row r="114" spans="1:21" ht="15">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -6845,7 +6904,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="115" spans="1:21">
+    <row r="115" spans="1:21" ht="15">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -6859,7 +6918,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="116" spans="1:21">
+    <row r="116" spans="1:21" ht="15">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -6873,7 +6932,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="117" spans="1:21">
+    <row r="117" spans="1:21" ht="15">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -6887,7 +6946,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="118" spans="1:21">
+    <row r="118" spans="1:21" ht="15">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -6901,7 +6960,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="119" spans="1:21">
+    <row r="119" spans="1:21" ht="15">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -6915,7 +6974,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="120" spans="1:21">
+    <row r="120" spans="1:21" ht="15">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -6929,7 +6988,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="121" spans="1:21">
+    <row r="121" spans="1:21" ht="15">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -6943,7 +7002,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="122" spans="1:21">
+    <row r="122" spans="1:21" ht="15">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -6957,7 +7016,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="123" spans="1:21">
+    <row r="123" spans="1:21" ht="15">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -6971,7 +7030,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="124" spans="1:21">
+    <row r="124" spans="1:21" ht="15">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -6985,7 +7044,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="125" spans="1:21">
+    <row r="125" spans="1:21" ht="15">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -7002,7 +7061,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="126" spans="1:21">
+    <row r="126" spans="1:21" ht="15">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -7016,7 +7075,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="127" spans="1:21">
+    <row r="127" spans="1:21" ht="15">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -7033,7 +7092,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="128" spans="1:21">
+    <row r="128" spans="1:21" ht="15">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -7047,7 +7106,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="129" spans="1:21">
+    <row r="129" spans="1:21" ht="15">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -7064,7 +7123,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="130" spans="1:21">
+    <row r="130" spans="1:21" ht="15">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -7081,7 +7140,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="131" spans="1:21">
+    <row r="131" spans="1:21" ht="15">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -7095,7 +7154,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="132" spans="1:21">
+    <row r="132" spans="1:21" ht="15">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -7109,7 +7168,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="133" spans="1:21">
+    <row r="133" spans="1:21" ht="15">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -7123,7 +7182,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="134" spans="1:21">
+    <row r="134" spans="1:21" ht="15">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -7137,7 +7196,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="135" spans="1:21">
+    <row r="135" spans="1:21" ht="15">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -7151,7 +7210,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="136" spans="1:21">
+    <row r="136" spans="1:21" ht="15">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -7165,7 +7224,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="137" spans="1:21">
+    <row r="137" spans="1:21" ht="15">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -7179,7 +7238,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="138" spans="1:21">
+    <row r="138" spans="1:21" ht="15">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -7193,7 +7252,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="139" spans="1:21">
+    <row r="139" spans="1:21" ht="15">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -7207,7 +7266,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="140" spans="1:21">
+    <row r="140" spans="1:21" ht="15">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -7221,7 +7280,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="141" spans="1:21">
+    <row r="141" spans="1:21" ht="15">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -7235,7 +7294,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="142" spans="1:21">
+    <row r="142" spans="1:21" ht="15">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -7249,7 +7308,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="143" spans="1:21">
+    <row r="143" spans="1:21" ht="15">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -7263,7 +7322,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="144" spans="1:21">
+    <row r="144" spans="1:21" ht="15">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -7277,7 +7336,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="145" spans="1:21">
+    <row r="145" spans="1:21" ht="15">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -7291,7 +7350,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="146" spans="1:21">
+    <row r="146" spans="1:21" ht="15">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -7305,7 +7364,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="147" spans="1:21">
+    <row r="147" spans="1:21" ht="15">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -7319,7 +7378,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="148" spans="1:21">
+    <row r="148" spans="1:21" ht="15">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -7333,7 +7392,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="149" spans="1:21">
+    <row r="149" spans="1:21" ht="15">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -7347,7 +7406,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="150" spans="1:21">
+    <row r="150" spans="1:21" ht="15">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -7361,7 +7420,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="151" spans="1:21">
+    <row r="151" spans="1:21" ht="15">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -7378,7 +7437,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="152" spans="1:21">
+    <row r="152" spans="1:21" ht="15">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -7392,7 +7451,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="153" spans="1:21">
+    <row r="153" spans="1:21" ht="15">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -7406,7 +7465,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="154" spans="1:21">
+    <row r="154" spans="1:21" ht="15">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -7420,7 +7479,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="155" spans="1:21">
+    <row r="155" spans="1:21" ht="15">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -7437,7 +7496,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="156" spans="1:21">
+    <row r="156" spans="1:21" ht="15">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -7451,7 +7510,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="157" spans="1:21">
+    <row r="157" spans="1:21" ht="15">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -7465,7 +7524,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="158" spans="1:21">
+    <row r="158" spans="1:21" ht="15">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -7482,7 +7541,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="159" spans="1:21">
+    <row r="159" spans="1:21" ht="15">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -7496,7 +7555,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="160" spans="1:21">
+    <row r="160" spans="1:21" ht="15">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -7510,7 +7569,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="161" spans="1:21">
+    <row r="161" spans="1:21" ht="15">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -7524,7 +7583,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="162" spans="1:21">
+    <row r="162" spans="1:21" ht="15">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -7538,7 +7597,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="163" spans="1:21">
+    <row r="163" spans="1:21" ht="15">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -7552,7 +7611,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="164" spans="1:21">
+    <row r="164" spans="1:21" ht="15">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -7566,7 +7625,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="165" spans="1:21">
+    <row r="165" spans="1:21" ht="15">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -7580,7 +7639,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="166" spans="1:21">
+    <row r="166" spans="1:21" ht="15">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -7594,7 +7653,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="167" spans="1:21">
+    <row r="167" spans="1:21" ht="15">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -7608,7 +7667,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="168" spans="1:21">
+    <row r="168" spans="1:21" ht="15">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -7622,7 +7681,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="169" spans="1:21">
+    <row r="169" spans="1:21" ht="15">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -7636,7 +7695,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="170" spans="1:21">
+    <row r="170" spans="1:21" ht="15">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -7650,7 +7709,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="171" spans="1:21">
+    <row r="171" spans="1:21" ht="15">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -7664,7 +7723,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="172" spans="1:21">
+    <row r="172" spans="1:21" ht="15">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -7678,7 +7737,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="173" spans="1:21">
+    <row r="173" spans="1:21" ht="15">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -7692,7 +7751,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="174" spans="1:21">
+    <row r="174" spans="1:21" ht="15">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -7706,7 +7765,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="175" spans="1:21">
+    <row r="175" spans="1:21" ht="15">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -7723,7 +7782,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="176" spans="1:21">
+    <row r="176" spans="1:21" ht="15">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -7740,7 +7799,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="177" spans="1:21">
+    <row r="177" spans="1:21" ht="15">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -7754,7 +7813,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="178" spans="1:21">
+    <row r="178" spans="1:21" ht="15">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -7768,7 +7827,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="179" spans="1:21">
+    <row r="179" spans="1:21" ht="15">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -7782,7 +7841,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="180" spans="1:21">
+    <row r="180" spans="1:21" ht="15">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -7796,7 +7855,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="181" spans="1:21">
+    <row r="181" spans="1:21" ht="15">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -7810,7 +7869,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="182" spans="1:21">
+    <row r="182" spans="1:21" ht="15">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -7827,7 +7886,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="183" spans="1:21">
+    <row r="183" spans="1:21" ht="15">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -7844,7 +7903,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="184" spans="1:21">
+    <row r="184" spans="1:21" ht="15">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -7858,7 +7917,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="185" spans="1:21">
+    <row r="185" spans="1:21" ht="15">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -7872,7 +7931,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="186" spans="1:21">
+    <row r="186" spans="1:21" ht="15">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -7886,7 +7945,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="187" spans="1:21">
+    <row r="187" spans="1:21" ht="15">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -7900,7 +7959,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="188" spans="1:21">
+    <row r="188" spans="1:21" ht="15">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -7914,7 +7973,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="189" spans="1:21">
+    <row r="189" spans="1:21" ht="15">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -7928,7 +7987,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="190" spans="1:21">
+    <row r="190" spans="1:21" ht="15">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -7942,7 +8001,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="191" spans="1:21">
+    <row r="191" spans="1:21" ht="15">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -7956,7 +8015,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="192" spans="1:21">
+    <row r="192" spans="1:21" ht="15">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -7970,7 +8029,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="193" spans="1:21">
+    <row r="193" spans="1:21" ht="15">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -7984,7 +8043,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="194" spans="1:21">
+    <row r="194" spans="1:21" ht="15">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -7998,7 +8057,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="195" spans="1:21">
+    <row r="195" spans="1:21" ht="15">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -8012,7 +8071,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="196" spans="1:21">
+    <row r="196" spans="1:21" ht="15">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -8026,7 +8085,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="197" spans="1:21">
+    <row r="197" spans="1:21" ht="15">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -8040,7 +8099,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="198" spans="1:21">
+    <row r="198" spans="1:21" ht="15">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -8054,7 +8113,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="199" spans="1:21">
+    <row r="199" spans="1:21" ht="15">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -8068,7 +8127,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="200" spans="1:21">
+    <row r="200" spans="1:21" ht="15">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -8082,7 +8141,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="201" spans="1:21">
+    <row r="201" spans="1:21" ht="15">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -8096,7 +8155,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="202" spans="1:21">
+    <row r="202" spans="1:21" ht="15">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -8110,7 +8169,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="203" spans="1:21">
+    <row r="203" spans="1:21" ht="15">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -8124,7 +8183,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="204" spans="1:21">
+    <row r="204" spans="1:21" ht="15">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -8138,7 +8197,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="205" spans="1:21">
+    <row r="205" spans="1:21" ht="15">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -8152,7 +8211,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="206" spans="1:21">
+    <row r="206" spans="1:21" ht="15">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -8166,7 +8225,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="207" spans="1:21">
+    <row r="207" spans="1:21" ht="15">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -8180,7 +8239,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="208" spans="1:21">
+    <row r="208" spans="1:21" ht="15">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -8194,7 +8253,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="209" spans="1:21">
+    <row r="209" spans="1:21" ht="15">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -8208,7 +8267,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="210" spans="1:21">
+    <row r="210" spans="1:21" ht="15">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -8222,7 +8281,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="211" spans="1:21">
+    <row r="211" spans="1:21" ht="15">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -8236,7 +8295,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="212" spans="1:21">
+    <row r="212" spans="1:21" ht="15">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -8250,7 +8309,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="213" spans="1:21">
+    <row r="213" spans="1:21" ht="15">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -8267,7 +8326,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="214" spans="1:21">
+    <row r="214" spans="1:21" ht="15">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -8281,7 +8340,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="215" spans="1:21">
+    <row r="215" spans="1:21" ht="15">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -8295,7 +8354,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="216" spans="1:21">
+    <row r="216" spans="1:21" ht="15">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -8309,7 +8368,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="217" spans="1:21">
+    <row r="217" spans="1:21" ht="15">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -8323,7 +8382,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="218" spans="1:21">
+    <row r="218" spans="1:21" ht="15">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -8337,7 +8396,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="219" spans="1:21">
+    <row r="219" spans="1:21" ht="15">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -8351,7 +8410,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="220" spans="1:21">
+    <row r="220" spans="1:21" ht="15">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -8365,7 +8424,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="221" spans="1:21">
+    <row r="221" spans="1:21" ht="15">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -8379,7 +8438,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="222" spans="1:21">
+    <row r="222" spans="1:21" ht="15">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -8393,7 +8452,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="223" spans="1:21">
+    <row r="223" spans="1:21" ht="15">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -8407,7 +8466,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="224" spans="1:21">
+    <row r="224" spans="1:21" ht="15">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -8421,7 +8480,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="225" spans="1:21">
+    <row r="225" spans="1:21" ht="15">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -8435,7 +8494,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="226" spans="1:21">
+    <row r="226" spans="1:21" ht="15">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -8449,7 +8508,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="227" spans="1:21">
+    <row r="227" spans="1:21" ht="15">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -8463,7 +8522,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="228" spans="1:21">
+    <row r="228" spans="1:21" ht="15">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -8477,7 +8536,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="229" spans="1:21">
+    <row r="229" spans="1:21" ht="15">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -8491,7 +8550,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="230" spans="1:21">
+    <row r="230" spans="1:21" ht="15">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -8505,7 +8564,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="231" spans="1:21">
+    <row r="231" spans="1:21" ht="15">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -8519,7 +8578,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="232" spans="1:21">
+    <row r="232" spans="1:21" ht="15">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -8533,7 +8592,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="233" spans="1:21">
+    <row r="233" spans="1:21" ht="15">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -8547,7 +8606,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="234" spans="1:21">
+    <row r="234" spans="1:21" ht="15">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -8564,7 +8623,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="235" spans="1:21">
+    <row r="235" spans="1:21" ht="15">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -8578,7 +8637,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="236" spans="1:21">
+    <row r="236" spans="1:21" ht="15">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -8592,7 +8651,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="237" spans="1:21">
+    <row r="237" spans="1:21" ht="15">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -8609,7 +8668,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="238" spans="1:21">
+    <row r="238" spans="1:21" ht="15">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -8626,7 +8685,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="239" spans="1:21">
+    <row r="239" spans="1:21" ht="15">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -8643,7 +8702,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="240" spans="1:21">
+    <row r="240" spans="1:21" ht="15">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -8660,7 +8719,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="241" spans="1:21">
+    <row r="241" spans="1:21" ht="15">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -8677,7 +8736,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="242" spans="1:21">
+    <row r="242" spans="1:21" ht="15">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -8691,7 +8750,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="243" spans="1:21">
+    <row r="243" spans="1:21" ht="15">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -8705,7 +8764,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="244" spans="1:21">
+    <row r="244" spans="1:21" ht="15">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -8719,7 +8778,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="245" spans="1:21">
+    <row r="245" spans="1:21" ht="15">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -8736,7 +8795,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="246" spans="1:21">
+    <row r="246" spans="1:21" ht="15">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -8753,7 +8812,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="247" spans="1:21">
+    <row r="247" spans="1:21" ht="15">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -8770,7 +8829,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="248" spans="1:21">
+    <row r="248" spans="1:21" ht="15">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -8787,7 +8846,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="249" spans="1:21">
+    <row r="249" spans="1:21" ht="15">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -8801,7 +8860,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="250" spans="1:21">
+    <row r="250" spans="1:21" ht="15">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -8815,7 +8874,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="251" spans="1:21">
+    <row r="251" spans="1:21" ht="15">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -8829,7 +8888,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="252" spans="1:21">
+    <row r="252" spans="1:21" ht="15">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -8843,7 +8902,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="253" spans="1:21">
+    <row r="253" spans="1:21" ht="15">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -8857,7 +8916,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="254" spans="1:21">
+    <row r="254" spans="1:21" ht="15">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -8871,7 +8930,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="255" spans="1:21">
+    <row r="255" spans="1:21" ht="15">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -8885,7 +8944,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="256" spans="1:21">
+    <row r="256" spans="1:21" ht="15">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -8899,7 +8958,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="257" spans="1:21">
+    <row r="257" spans="1:21" ht="15">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -8913,7 +8972,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="258" spans="1:21">
+    <row r="258" spans="1:21" ht="15">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -8927,7 +8986,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="259" spans="1:21">
+    <row r="259" spans="1:21" ht="15">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -8941,7 +9000,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="260" spans="1:21">
+    <row r="260" spans="1:21" ht="15">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -8955,7 +9014,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="261" spans="1:21">
+    <row r="261" spans="1:21" ht="15">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -8969,7 +9028,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="262" spans="1:21">
+    <row r="262" spans="1:21" ht="15">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -8983,7 +9042,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="263" spans="1:21">
+    <row r="263" spans="1:21" ht="15">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -8997,7 +9056,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="264" spans="1:21">
+    <row r="264" spans="1:21" ht="15">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -9011,7 +9070,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="265" spans="1:21">
+    <row r="265" spans="1:21" ht="15">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -9025,7 +9084,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="266" spans="1:21">
+    <row r="266" spans="1:21" ht="15">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -9039,7 +9098,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="267" spans="1:21">
+    <row r="267" spans="1:21" ht="15">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -9053,7 +9112,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="268" spans="1:21">
+    <row r="268" spans="1:21" ht="15">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -9067,7 +9126,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="269" spans="1:21">
+    <row r="269" spans="1:21" ht="15">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -9081,7 +9140,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="270" spans="1:21">
+    <row r="270" spans="1:21" ht="15">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -9095,7 +9154,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="271" spans="1:21">
+    <row r="271" spans="1:21" ht="15">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -9112,7 +9171,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="272" spans="1:21">
+    <row r="272" spans="1:21" ht="15">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -9126,7 +9185,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="273" spans="1:21">
+    <row r="273" spans="1:21" ht="15">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -9140,7 +9199,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="274" spans="1:21">
+    <row r="274" spans="1:21" ht="15">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -9154,7 +9213,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="275" spans="1:21">
+    <row r="275" spans="1:21" ht="15">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -9168,7 +9227,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="276" spans="1:21">
+    <row r="276" spans="1:21" ht="15">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -9182,7 +9241,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="277" spans="1:21">
+    <row r="277" spans="1:21" ht="15">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -9196,7 +9255,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="278" spans="1:21">
+    <row r="278" spans="1:21" ht="15">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -9210,7 +9269,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="279" spans="1:21">
+    <row r="279" spans="1:21" ht="15">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -9224,7 +9283,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="280" spans="1:21">
+    <row r="280" spans="1:21" ht="15">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -9238,7 +9297,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="281" spans="1:21">
+    <row r="281" spans="1:21" ht="15">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -9252,7 +9311,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="282" spans="1:21">
+    <row r="282" spans="1:21" ht="15">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -9266,7 +9325,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="283" spans="1:21">
+    <row r="283" spans="1:21" ht="15">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -9280,7 +9339,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="284" spans="1:21">
+    <row r="284" spans="1:21" ht="15">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -9294,7 +9353,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="285" spans="1:21">
+    <row r="285" spans="1:21" ht="15">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -9311,7 +9370,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="286" spans="1:21">
+    <row r="286" spans="1:21" ht="15">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -9325,7 +9384,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="287" spans="1:21">
+    <row r="287" spans="1:21" ht="15">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -9339,7 +9398,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="288" spans="1:21">
+    <row r="288" spans="1:21" ht="15">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -9353,7 +9412,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="289" spans="1:21">
+    <row r="289" spans="1:21" ht="15">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -9367,7 +9426,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="290" spans="1:21">
+    <row r="290" spans="1:21" ht="15">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -9381,7 +9440,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="291" spans="1:21">
+    <row r="291" spans="1:21" ht="15">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -9395,7 +9454,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="292" spans="1:21">
+    <row r="292" spans="1:21" ht="15">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -9409,7 +9468,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="293" spans="1:21">
+    <row r="293" spans="1:21" ht="15">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -9423,7 +9482,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="294" spans="1:21">
+    <row r="294" spans="1:21" ht="15">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -9440,7 +9499,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="295" spans="1:21">
+    <row r="295" spans="1:21" ht="15">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -9457,7 +9516,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="296" spans="1:21">
+    <row r="296" spans="1:21" ht="15">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -9474,7 +9533,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="297" spans="1:21">
+    <row r="297" spans="1:21" ht="15">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -9488,7 +9547,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="298" spans="1:21">
+    <row r="298" spans="1:21" ht="15">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -9505,7 +9564,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="299" spans="1:21">
+    <row r="299" spans="1:21" ht="15">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -9519,7 +9578,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="300" spans="1:21">
+    <row r="300" spans="1:21" ht="15">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -9533,7 +9592,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="301" spans="1:21">
+    <row r="301" spans="1:21" ht="15">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -9547,7 +9606,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="302" spans="1:21">
+    <row r="302" spans="1:21" ht="15">
       <c r="A302" t="s">
         <v>301</v>
       </c>
@@ -9561,7 +9620,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="303" spans="1:21">
+    <row r="303" spans="1:21" ht="15">
       <c r="A303" t="s">
         <v>302</v>
       </c>
@@ -9575,7 +9634,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="304" spans="1:21">
+    <row r="304" spans="1:21" ht="15">
       <c r="A304" t="s">
         <v>303</v>
       </c>
@@ -9589,7 +9648,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="305" spans="1:21">
+    <row r="305" spans="1:21" ht="15">
       <c r="A305" t="s">
         <v>304</v>
       </c>
@@ -9603,7 +9662,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="306" spans="1:21">
+    <row r="306" spans="1:21" ht="15">
       <c r="A306" t="s">
         <v>305</v>
       </c>
@@ -9617,7 +9676,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="307" spans="1:21">
+    <row r="307" spans="1:21" ht="15">
       <c r="A307" t="s">
         <v>306</v>
       </c>
@@ -9631,7 +9690,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="308" spans="1:21">
+    <row r="308" spans="1:21" ht="15">
       <c r="A308" t="s">
         <v>307</v>
       </c>
@@ -9645,7 +9704,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="309" spans="1:21">
+    <row r="309" spans="1:21" ht="15">
       <c r="A309" t="s">
         <v>308</v>
       </c>
@@ -9659,7 +9718,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="310" spans="1:21">
+    <row r="310" spans="1:21" ht="15">
       <c r="A310" t="s">
         <v>309</v>
       </c>
@@ -9673,7 +9732,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="311" spans="1:21">
+    <row r="311" spans="1:21" ht="15">
       <c r="A311" t="s">
         <v>310</v>
       </c>
@@ -9687,7 +9746,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="312" spans="1:21">
+    <row r="312" spans="1:21" ht="15">
       <c r="A312" t="s">
         <v>311</v>
       </c>
@@ -9701,7 +9760,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="313" spans="1:21">
+    <row r="313" spans="1:21" ht="15">
       <c r="A313" t="s">
         <v>312</v>
       </c>
@@ -9715,7 +9774,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="314" spans="1:21">
+    <row r="314" spans="1:21" ht="15">
       <c r="A314" t="s">
         <v>313</v>
       </c>
@@ -9729,7 +9788,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="315" spans="1:21">
+    <row r="315" spans="1:21" ht="15">
       <c r="A315" t="s">
         <v>314</v>
       </c>
@@ -9743,7 +9802,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="316" spans="1:21">
+    <row r="316" spans="1:21" ht="15">
       <c r="A316" t="s">
         <v>315</v>
       </c>
@@ -9757,7 +9816,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="317" spans="1:21">
+    <row r="317" spans="1:21" ht="15">
       <c r="A317" t="s">
         <v>316</v>
       </c>
@@ -9771,7 +9830,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="318" spans="1:21">
+    <row r="318" spans="1:21" ht="15">
       <c r="A318" t="s">
         <v>317</v>
       </c>
@@ -9785,7 +9844,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="319" spans="1:21">
+    <row r="319" spans="1:21" ht="15">
       <c r="A319" t="s">
         <v>318</v>
       </c>
@@ -9799,7 +9858,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="320" spans="1:21">
+    <row r="320" spans="1:21" ht="15">
       <c r="A320" t="s">
         <v>319</v>
       </c>
@@ -9813,7 +9872,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="321" spans="1:21">
+    <row r="321" spans="1:21" ht="15">
       <c r="A321" t="s">
         <v>320</v>
       </c>
@@ -9827,7 +9886,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="322" spans="1:21">
+    <row r="322" spans="1:21" ht="15">
       <c r="A322" t="s">
         <v>321</v>
       </c>
@@ -9841,7 +9900,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="323" spans="1:21">
+    <row r="323" spans="1:21" ht="15">
       <c r="A323" t="s">
         <v>322</v>
       </c>
@@ -9855,7 +9914,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="324" spans="1:21">
+    <row r="324" spans="1:21" ht="15">
       <c r="A324" t="s">
         <v>323</v>
       </c>
@@ -9869,7 +9928,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="325" spans="1:21">
+    <row r="325" spans="1:21" ht="15">
       <c r="A325" t="s">
         <v>324</v>
       </c>
@@ -9886,7 +9945,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="326" spans="1:21">
+    <row r="326" spans="1:21" ht="15">
       <c r="A326" t="s">
         <v>325</v>
       </c>
@@ -9900,7 +9959,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="327" spans="1:21">
+    <row r="327" spans="1:21" ht="15">
       <c r="A327" t="s">
         <v>326</v>
       </c>
@@ -9914,7 +9973,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="328" spans="1:21">
+    <row r="328" spans="1:21" ht="15">
       <c r="A328" t="s">
         <v>327</v>
       </c>
@@ -9928,7 +9987,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="329" spans="1:21">
+    <row r="329" spans="1:21" ht="15">
       <c r="A329" t="s">
         <v>328</v>
       </c>
@@ -9942,7 +10001,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="330" spans="1:21">
+    <row r="330" spans="1:21" ht="15">
       <c r="A330" t="s">
         <v>329</v>
       </c>
@@ -9956,7 +10015,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="331" spans="1:21">
+    <row r="331" spans="1:21" ht="15">
       <c r="A331" t="s">
         <v>330</v>
       </c>
@@ -9973,7 +10032,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="332" spans="1:21">
+    <row r="332" spans="1:21" ht="15">
       <c r="A332" t="s">
         <v>331</v>
       </c>
@@ -9987,7 +10046,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="333" spans="1:21">
+    <row r="333" spans="1:21" ht="15">
       <c r="A333" t="s">
         <v>332</v>
       </c>
@@ -10001,7 +10060,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="334" spans="1:21">
+    <row r="334" spans="1:21" ht="15">
       <c r="A334" t="s">
         <v>333</v>
       </c>
@@ -10015,7 +10074,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="335" spans="1:21">
+    <row r="335" spans="1:21" ht="15">
       <c r="A335" t="s">
         <v>334</v>
       </c>
@@ -10029,7 +10088,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="336" spans="1:21">
+    <row r="336" spans="1:21" ht="15">
       <c r="A336" t="s">
         <v>335</v>
       </c>
@@ -10043,7 +10102,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="337" spans="1:21">
+    <row r="337" spans="1:21" ht="15">
       <c r="A337" t="s">
         <v>336</v>
       </c>
@@ -10057,7 +10116,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="338" spans="1:21">
+    <row r="338" spans="1:21" ht="15">
       <c r="A338" t="s">
         <v>337</v>
       </c>
@@ -10071,7 +10130,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="339" spans="1:21">
+    <row r="339" spans="1:21" ht="15">
       <c r="A339" t="s">
         <v>338</v>
       </c>
@@ -10085,7 +10144,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="340" spans="1:21">
+    <row r="340" spans="1:21" ht="15">
       <c r="A340" t="s">
         <v>339</v>
       </c>
@@ -10099,7 +10158,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="341" spans="1:21">
+    <row r="341" spans="1:21" ht="15">
       <c r="A341" t="s">
         <v>340</v>
       </c>
@@ -10113,7 +10172,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="342" spans="1:21">
+    <row r="342" spans="1:21" ht="15">
       <c r="A342" t="s">
         <v>341</v>
       </c>
@@ -10127,7 +10186,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="343" spans="1:21">
+    <row r="343" spans="1:21" ht="15">
       <c r="A343" t="s">
         <v>342</v>
       </c>
@@ -10141,7 +10200,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="344" spans="1:21">
+    <row r="344" spans="1:21" ht="15">
       <c r="A344" t="s">
         <v>343</v>
       </c>
@@ -10155,7 +10214,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="345" spans="1:21">
+    <row r="345" spans="1:21" ht="15">
       <c r="A345" t="s">
         <v>344</v>
       </c>
@@ -10169,7 +10228,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="346" spans="1:21">
+    <row r="346" spans="1:21" ht="15">
       <c r="A346" t="s">
         <v>345</v>
       </c>
@@ -10183,7 +10242,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="347" spans="1:21">
+    <row r="347" spans="1:21" ht="15">
       <c r="A347" t="s">
         <v>346</v>
       </c>
@@ -10197,7 +10256,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="348" spans="1:21">
+    <row r="348" spans="1:21" ht="15">
       <c r="A348" t="s">
         <v>347</v>
       </c>
@@ -10211,7 +10270,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="349" spans="1:21">
+    <row r="349" spans="1:21" ht="15">
       <c r="A349" t="s">
         <v>348</v>
       </c>
@@ -10228,7 +10287,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="350" spans="1:21">
+    <row r="350" spans="1:21" ht="15">
       <c r="A350" t="s">
         <v>349</v>
       </c>
@@ -10245,7 +10304,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="351" spans="1:21">
+    <row r="351" spans="1:21" ht="15">
       <c r="A351" t="s">
         <v>350</v>
       </c>
@@ -10259,7 +10318,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="352" spans="1:21">
+    <row r="352" spans="1:21" ht="15">
       <c r="A352" t="s">
         <v>351</v>
       </c>
@@ -10273,7 +10332,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="353" spans="1:21">
+    <row r="353" spans="1:21" ht="15">
       <c r="A353" t="s">
         <v>352</v>
       </c>
@@ -10287,7 +10346,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="354" spans="1:21">
+    <row r="354" spans="1:21" ht="15">
       <c r="A354" t="s">
         <v>353</v>
       </c>
@@ -10301,7 +10360,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="355" spans="1:21">
+    <row r="355" spans="1:21" ht="15">
       <c r="A355" t="s">
         <v>354</v>
       </c>
@@ -10315,7 +10374,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="356" spans="1:21">
+    <row r="356" spans="1:21" ht="15">
       <c r="A356" t="s">
         <v>355</v>
       </c>
@@ -10329,7 +10388,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="357" spans="1:21">
+    <row r="357" spans="1:21" ht="15">
       <c r="A357" t="s">
         <v>356</v>
       </c>
@@ -10343,7 +10402,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="358" spans="1:21">
+    <row r="358" spans="1:21" ht="15">
       <c r="A358" t="s">
         <v>357</v>
       </c>
@@ -10357,7 +10416,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="359" spans="1:21">
+    <row r="359" spans="1:21" ht="15">
       <c r="A359" t="s">
         <v>358</v>
       </c>
@@ -10371,7 +10430,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="360" spans="1:21">
+    <row r="360" spans="1:21" ht="15">
       <c r="A360" t="s">
         <v>359</v>
       </c>
@@ -10385,7 +10444,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="361" spans="1:21">
+    <row r="361" spans="1:21" ht="15">
       <c r="A361" t="s">
         <v>360</v>
       </c>
@@ -10399,7 +10458,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="362" spans="1:21">
+    <row r="362" spans="1:21" ht="15">
       <c r="A362" t="s">
         <v>361</v>
       </c>
@@ -10413,7 +10472,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="363" spans="1:21">
+    <row r="363" spans="1:21" ht="15">
       <c r="A363" t="s">
         <v>362</v>
       </c>
@@ -10430,7 +10489,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="364" spans="1:21">
+    <row r="364" spans="1:21" ht="15">
       <c r="A364" t="s">
         <v>363</v>
       </c>
@@ -10447,7 +10506,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="365" spans="1:21">
+    <row r="365" spans="1:21" ht="15">
       <c r="A365" t="s">
         <v>364</v>
       </c>
@@ -10461,7 +10520,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="366" spans="1:21">
+    <row r="366" spans="1:21" ht="15">
       <c r="A366" t="s">
         <v>365</v>
       </c>
@@ -10475,7 +10534,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="367" spans="1:21">
+    <row r="367" spans="1:21" ht="15">
       <c r="A367" t="s">
         <v>366</v>
       </c>
@@ -10489,7 +10548,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="368" spans="1:21">
+    <row r="368" spans="1:21" ht="15">
       <c r="A368" t="s">
         <v>367</v>
       </c>
@@ -10506,7 +10565,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="369" spans="1:21">
+    <row r="369" spans="1:21" ht="15">
       <c r="A369" t="s">
         <v>368</v>
       </c>
@@ -10520,7 +10579,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="370" spans="1:21">
+    <row r="370" spans="1:21" ht="15">
       <c r="A370" t="s">
         <v>369</v>
       </c>
@@ -10534,7 +10593,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="371" spans="1:21">
+    <row r="371" spans="1:21" ht="15">
       <c r="A371" t="s">
         <v>370</v>
       </c>
@@ -10551,7 +10610,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="372" spans="1:21">
+    <row r="372" spans="1:21" ht="15">
       <c r="A372" t="s">
         <v>371</v>
       </c>
@@ -10565,7 +10624,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="373" spans="1:21">
+    <row r="373" spans="1:21" ht="15">
       <c r="A373" t="s">
         <v>372</v>
       </c>
@@ -10579,7 +10638,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="374" spans="1:21">
+    <row r="374" spans="1:21" ht="15">
       <c r="A374" t="s">
         <v>373</v>
       </c>
@@ -10593,7 +10652,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="375" spans="1:21">
+    <row r="375" spans="1:21" ht="15">
       <c r="A375" t="s">
         <v>374</v>
       </c>
@@ -10607,7 +10666,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="376" spans="1:21">
+    <row r="376" spans="1:21" ht="15">
       <c r="A376" t="s">
         <v>375</v>
       </c>
@@ -10624,7 +10683,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="377" spans="1:21">
+    <row r="377" spans="1:21" ht="15">
       <c r="A377" t="s">
         <v>376</v>
       </c>
@@ -10638,7 +10697,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="378" spans="1:21">
+    <row r="378" spans="1:21" ht="15">
       <c r="A378" t="s">
         <v>377</v>
       </c>
@@ -10652,7 +10711,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="379" spans="1:21">
+    <row r="379" spans="1:21" ht="15">
       <c r="A379" t="s">
         <v>378</v>
       </c>
@@ -10666,7 +10725,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="380" spans="1:21">
+    <row r="380" spans="1:21" ht="15">
       <c r="A380" t="s">
         <v>379</v>
       </c>
@@ -10680,7 +10739,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="381" spans="1:21">
+    <row r="381" spans="1:21" ht="15">
       <c r="A381" t="s">
         <v>380</v>
       </c>
@@ -10694,7 +10753,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="382" spans="1:21">
+    <row r="382" spans="1:21" ht="15">
       <c r="A382" t="s">
         <v>381</v>
       </c>
@@ -10708,7 +10767,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="383" spans="1:21">
+    <row r="383" spans="1:21" ht="15">
       <c r="A383" t="s">
         <v>382</v>
       </c>
@@ -10722,7 +10781,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="384" spans="1:21">
+    <row r="384" spans="1:21" ht="15">
       <c r="A384" t="s">
         <v>383</v>
       </c>
@@ -10736,7 +10795,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="385" spans="1:21">
+    <row r="385" spans="1:21" ht="15">
       <c r="A385" t="s">
         <v>384</v>
       </c>
@@ -10750,7 +10809,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="386" spans="1:21">
+    <row r="386" spans="1:21" ht="15">
       <c r="A386" t="s">
         <v>385</v>
       </c>
@@ -10764,7 +10823,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="387" spans="1:21">
+    <row r="387" spans="1:21" ht="15">
       <c r="A387" t="s">
         <v>386</v>
       </c>
@@ -10778,7 +10837,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="388" spans="1:21">
+    <row r="388" spans="1:21" ht="15">
       <c r="A388" t="s">
         <v>387</v>
       </c>
@@ -10792,7 +10851,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="389" spans="1:21">
+    <row r="389" spans="1:21" ht="15">
       <c r="A389" t="s">
         <v>388</v>
       </c>
@@ -10806,7 +10865,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="390" spans="1:21">
+    <row r="390" spans="1:21" ht="15">
       <c r="A390" t="s">
         <v>389</v>
       </c>
@@ -10820,7 +10879,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="391" spans="1:21">
+    <row r="391" spans="1:21" ht="15">
       <c r="A391" t="s">
         <v>390</v>
       </c>
@@ -10837,7 +10896,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="392" spans="1:21">
+    <row r="392" spans="1:21" ht="15">
       <c r="A392" t="s">
         <v>391</v>
       </c>
@@ -10851,7 +10910,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="393" spans="1:21">
+    <row r="393" spans="1:21" ht="15">
       <c r="A393" t="s">
         <v>392</v>
       </c>
@@ -10865,7 +10924,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="394" spans="1:21">
+    <row r="394" spans="1:21" ht="15">
       <c r="A394" t="s">
         <v>393</v>
       </c>
@@ -10879,7 +10938,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="395" spans="1:21">
+    <row r="395" spans="1:21" ht="15">
       <c r="A395" t="s">
         <v>394</v>
       </c>
@@ -10893,7 +10952,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="396" spans="1:21">
+    <row r="396" spans="1:21" ht="15">
       <c r="A396" t="s">
         <v>395</v>
       </c>
@@ -10907,7 +10966,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="397" spans="1:21">
+    <row r="397" spans="1:21" ht="15">
       <c r="A397" t="s">
         <v>396</v>
       </c>
@@ -10921,7 +10980,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="398" spans="1:21">
+    <row r="398" spans="1:21" ht="15">
       <c r="A398" t="s">
         <v>397</v>
       </c>
@@ -10935,7 +10994,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="399" spans="1:21">
+    <row r="399" spans="1:21" ht="15">
       <c r="A399" t="s">
         <v>398</v>
       </c>
@@ -10949,7 +11008,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="400" spans="1:21">
+    <row r="400" spans="1:21" ht="15">
       <c r="A400" t="s">
         <v>399</v>
       </c>
@@ -10963,7 +11022,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="401" spans="1:21">
+    <row r="401" spans="1:21" ht="15">
       <c r="A401" t="s">
         <v>400</v>
       </c>
@@ -10977,7 +11036,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="402" spans="1:21">
+    <row r="402" spans="1:21" ht="15">
       <c r="A402" t="s">
         <v>401</v>
       </c>
@@ -10991,7 +11050,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="403" spans="1:21">
+    <row r="403" spans="1:21" ht="15">
       <c r="A403" t="s">
         <v>402</v>
       </c>
@@ -11008,7 +11067,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="404" spans="1:21">
+    <row r="404" spans="1:21" ht="15">
       <c r="A404" t="s">
         <v>403</v>
       </c>
@@ -11022,7 +11081,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="405" spans="1:21">
+    <row r="405" spans="1:21" ht="15">
       <c r="A405" t="s">
         <v>404</v>
       </c>
@@ -11036,7 +11095,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="406" spans="1:21">
+    <row r="406" spans="1:21" ht="15">
       <c r="A406" t="s">
         <v>405</v>
       </c>
@@ -11050,7 +11109,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="407" spans="1:21">
+    <row r="407" spans="1:21" ht="15">
       <c r="A407" t="s">
         <v>406</v>
       </c>
@@ -11067,7 +11126,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="408" spans="1:21">
+    <row r="408" spans="1:21" ht="15">
       <c r="A408" t="s">
         <v>407</v>
       </c>
@@ -11081,7 +11140,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="409" spans="1:21">
+    <row r="409" spans="1:21" ht="15">
       <c r="A409" t="s">
         <v>408</v>
       </c>
@@ -11095,7 +11154,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="410" spans="1:21">
+    <row r="410" spans="1:21" ht="15">
       <c r="A410" t="s">
         <v>409</v>
       </c>
@@ -11112,7 +11171,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="411" spans="1:21">
+    <row r="411" spans="1:21" ht="15">
       <c r="A411" t="s">
         <v>410</v>
       </c>
@@ -11126,7 +11185,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="412" spans="1:21">
+    <row r="412" spans="1:21" ht="15">
       <c r="A412" t="s">
         <v>411</v>
       </c>
@@ -11140,7 +11199,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="413" spans="1:21">
+    <row r="413" spans="1:21" ht="15">
       <c r="A413" t="s">
         <v>412</v>
       </c>
@@ -11154,7 +11213,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="414" spans="1:21">
+    <row r="414" spans="1:21" ht="15">
       <c r="A414" t="s">
         <v>413</v>
       </c>
@@ -11168,7 +11227,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="415" spans="1:21">
+    <row r="415" spans="1:21" ht="15">
       <c r="A415" t="s">
         <v>414</v>
       </c>
@@ -11182,7 +11241,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="416" spans="1:21">
+    <row r="416" spans="1:21" ht="15">
       <c r="A416" t="s">
         <v>415</v>
       </c>
@@ -11196,7 +11255,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="417" spans="1:21">
+    <row r="417" spans="1:21" ht="15">
       <c r="A417" t="s">
         <v>416</v>
       </c>
@@ -11210,7 +11269,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="418" spans="1:21">
+    <row r="418" spans="1:21" ht="15">
       <c r="A418" t="s">
         <v>417</v>
       </c>
@@ -11224,7 +11283,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="419" spans="1:21">
+    <row r="419" spans="1:21" ht="15">
       <c r="A419" t="s">
         <v>418</v>
       </c>
@@ -11238,7 +11297,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="420" spans="1:21">
+    <row r="420" spans="1:21" ht="15">
       <c r="A420" t="s">
         <v>419</v>
       </c>
@@ -11252,7 +11311,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="421" spans="1:21">
+    <row r="421" spans="1:21" ht="15">
       <c r="A421" t="s">
         <v>420</v>
       </c>
@@ -11266,7 +11325,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="422" spans="1:21">
+    <row r="422" spans="1:21" ht="15">
       <c r="A422" t="s">
         <v>421</v>
       </c>
@@ -11280,7 +11339,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="423" spans="1:21">
+    <row r="423" spans="1:21" ht="15">
       <c r="A423" t="s">
         <v>422</v>
       </c>
@@ -11294,7 +11353,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="424" spans="1:21">
+    <row r="424" spans="1:21" ht="15">
       <c r="A424" t="s">
         <v>423</v>
       </c>
@@ -11308,7 +11367,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="425" spans="1:21">
+    <row r="425" spans="1:21" ht="15">
       <c r="A425" t="s">
         <v>424</v>
       </c>
@@ -11322,7 +11381,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="426" spans="1:21">
+    <row r="426" spans="1:21" ht="15">
       <c r="A426" t="s">
         <v>425</v>
       </c>
@@ -11336,7 +11395,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="427" spans="1:21">
+    <row r="427" spans="1:21" ht="15">
       <c r="A427" t="s">
         <v>426</v>
       </c>
@@ -11350,7 +11409,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="428" spans="1:21">
+    <row r="428" spans="1:21" ht="15">
       <c r="A428" t="s">
         <v>427</v>
       </c>
@@ -11364,7 +11423,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="429" spans="1:21">
+    <row r="429" spans="1:21" ht="15">
       <c r="A429" t="s">
         <v>428</v>
       </c>
@@ -11378,7 +11437,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="430" spans="1:21">
+    <row r="430" spans="1:21" ht="15">
       <c r="A430" t="s">
         <v>429</v>
       </c>
@@ -11392,7 +11451,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="431" spans="1:21">
+    <row r="431" spans="1:21" ht="15">
       <c r="A431" t="s">
         <v>430</v>
       </c>
@@ -11406,7 +11465,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="432" spans="1:21">
+    <row r="432" spans="1:21" ht="15">
       <c r="A432" t="s">
         <v>431</v>
       </c>
@@ -11420,7 +11479,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="433" spans="1:21">
+    <row r="433" spans="1:21" ht="15">
       <c r="A433" t="s">
         <v>432</v>
       </c>
@@ -11434,7 +11493,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="434" spans="1:21">
+    <row r="434" spans="1:21" ht="15">
       <c r="A434" t="s">
         <v>433</v>
       </c>
@@ -11448,7 +11507,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="435" spans="1:21">
+    <row r="435" spans="1:21" ht="15">
       <c r="A435" t="s">
         <v>434</v>
       </c>
@@ -11462,7 +11521,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="436" spans="1:21">
+    <row r="436" spans="1:21" ht="15">
       <c r="A436" t="s">
         <v>435</v>
       </c>
@@ -11476,7 +11535,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="437" spans="1:21">
+    <row r="437" spans="1:21" ht="15">
       <c r="A437" t="s">
         <v>436</v>
       </c>
@@ -11490,7 +11549,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="438" spans="1:21">
+    <row r="438" spans="1:21" ht="15">
       <c r="A438" t="s">
         <v>437</v>
       </c>
@@ -11504,7 +11563,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="439" spans="1:21">
+    <row r="439" spans="1:21" ht="15">
       <c r="A439" t="s">
         <v>438</v>
       </c>
@@ -11521,7 +11580,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="440" spans="1:21">
+    <row r="440" spans="1:21" ht="15">
       <c r="A440" t="s">
         <v>439</v>
       </c>
@@ -11538,7 +11597,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="441" spans="1:21">
+    <row r="441" spans="1:21" ht="15">
       <c r="A441" t="s">
         <v>440</v>
       </c>
@@ -11555,7 +11614,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="442" spans="1:21">
+    <row r="442" spans="1:21" ht="15">
       <c r="A442" t="s">
         <v>441</v>
       </c>
@@ -11569,7 +11628,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="443" spans="1:21">
+    <row r="443" spans="1:21" ht="15">
       <c r="A443" t="s">
         <v>442</v>
       </c>
@@ -11583,7 +11642,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="444" spans="1:21">
+    <row r="444" spans="1:21" ht="15">
       <c r="A444" t="s">
         <v>443</v>
       </c>
@@ -11597,7 +11656,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="445" spans="1:21">
+    <row r="445" spans="1:21" ht="15">
       <c r="A445" t="s">
         <v>444</v>
       </c>
@@ -11614,7 +11673,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="446" spans="1:21">
+    <row r="446" spans="1:21" ht="15">
       <c r="A446" t="s">
         <v>445</v>
       </c>
@@ -11628,7 +11687,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="447" spans="1:21">
+    <row r="447" spans="1:21" ht="15">
       <c r="A447" t="s">
         <v>446</v>
       </c>
@@ -11642,7 +11701,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="448" spans="1:21">
+    <row r="448" spans="1:21" ht="15">
       <c r="A448" t="s">
         <v>447</v>
       </c>
@@ -11657,920 +11716,921 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="C2" r:id="rId3"/>
-    <hyperlink ref="D2" r:id="rId4"/>
-    <hyperlink ref="E2" r:id="rId5"/>
-    <hyperlink ref="F2" r:id="rId6"/>
-    <hyperlink ref="G2" r:id="rId7"/>
-    <hyperlink ref="H2" r:id="rId8"/>
-    <hyperlink ref="I2" r:id="rId9"/>
-    <hyperlink ref="J2" r:id="rId10"/>
-    <hyperlink ref="K2" r:id="rId11"/>
-    <hyperlink ref="L2" r:id="rId12"/>
-    <hyperlink ref="M2" r:id="rId13"/>
-    <hyperlink ref="N2" r:id="rId14"/>
-    <hyperlink ref="O2" r:id="rId15"/>
-    <hyperlink ref="P2" r:id="rId16"/>
-    <hyperlink ref="Q2" r:id="rId17"/>
-    <hyperlink ref="R2" r:id="rId18"/>
-    <hyperlink ref="S2" r:id="rId19"/>
-    <hyperlink ref="T2" r:id="rId20"/>
-    <hyperlink ref="U2" r:id="rId21"/>
-    <hyperlink ref="T3" r:id="rId22"/>
-    <hyperlink ref="U3" r:id="rId23"/>
-    <hyperlink ref="T4" r:id="rId24"/>
-    <hyperlink ref="U4" r:id="rId25"/>
-    <hyperlink ref="T5" r:id="rId26"/>
-    <hyperlink ref="U5" r:id="rId27"/>
-    <hyperlink ref="T6" r:id="rId28"/>
-    <hyperlink ref="U6" r:id="rId29"/>
-    <hyperlink ref="T7" r:id="rId30"/>
-    <hyperlink ref="U7" r:id="rId31"/>
-    <hyperlink ref="T8" r:id="rId32"/>
-    <hyperlink ref="U8" r:id="rId33"/>
-    <hyperlink ref="T9" r:id="rId34"/>
-    <hyperlink ref="U9" r:id="rId35"/>
-    <hyperlink ref="T10" r:id="rId36"/>
-    <hyperlink ref="U10" r:id="rId37"/>
-    <hyperlink ref="T11" r:id="rId38"/>
-    <hyperlink ref="U11" r:id="rId39"/>
-    <hyperlink ref="T12" r:id="rId40"/>
-    <hyperlink ref="U12" r:id="rId41"/>
-    <hyperlink ref="T13" r:id="rId42"/>
-    <hyperlink ref="U13" r:id="rId43"/>
-    <hyperlink ref="T14" r:id="rId44"/>
-    <hyperlink ref="U14" r:id="rId45"/>
-    <hyperlink ref="T15" r:id="rId46"/>
-    <hyperlink ref="U15" r:id="rId47"/>
-    <hyperlink ref="T16" r:id="rId48"/>
-    <hyperlink ref="U16" r:id="rId49"/>
-    <hyperlink ref="T17" r:id="rId50"/>
-    <hyperlink ref="U17" r:id="rId51"/>
-    <hyperlink ref="T18" r:id="rId52"/>
-    <hyperlink ref="U18" r:id="rId53"/>
-    <hyperlink ref="T19" r:id="rId54"/>
-    <hyperlink ref="U19" r:id="rId55"/>
-    <hyperlink ref="T20" r:id="rId56"/>
-    <hyperlink ref="U20" r:id="rId57"/>
-    <hyperlink ref="T21" r:id="rId58"/>
-    <hyperlink ref="U21" r:id="rId59"/>
-    <hyperlink ref="T22" r:id="rId60"/>
-    <hyperlink ref="U22" r:id="rId61"/>
-    <hyperlink ref="T23" r:id="rId62"/>
-    <hyperlink ref="U23" r:id="rId63"/>
-    <hyperlink ref="T24" r:id="rId64"/>
-    <hyperlink ref="U24" r:id="rId65"/>
-    <hyperlink ref="T25" r:id="rId66"/>
-    <hyperlink ref="U25" r:id="rId67"/>
-    <hyperlink ref="T26" r:id="rId68"/>
-    <hyperlink ref="U26" r:id="rId69"/>
-    <hyperlink ref="T27" r:id="rId70"/>
-    <hyperlink ref="U27" r:id="rId71"/>
-    <hyperlink ref="T28" r:id="rId72"/>
-    <hyperlink ref="U28" r:id="rId73"/>
-    <hyperlink ref="T29" r:id="rId74"/>
-    <hyperlink ref="U29" r:id="rId75"/>
-    <hyperlink ref="T30" r:id="rId76"/>
-    <hyperlink ref="U30" r:id="rId77"/>
-    <hyperlink ref="T31" r:id="rId78"/>
-    <hyperlink ref="U31" r:id="rId79"/>
-    <hyperlink ref="T32" r:id="rId80"/>
-    <hyperlink ref="U32" r:id="rId81"/>
-    <hyperlink ref="T33" r:id="rId82"/>
-    <hyperlink ref="U33" r:id="rId83"/>
-    <hyperlink ref="T34" r:id="rId84"/>
-    <hyperlink ref="U34" r:id="rId85"/>
-    <hyperlink ref="T35" r:id="rId86"/>
-    <hyperlink ref="U35" r:id="rId87"/>
-    <hyperlink ref="T36" r:id="rId88"/>
-    <hyperlink ref="U36" r:id="rId89"/>
-    <hyperlink ref="T37" r:id="rId90"/>
-    <hyperlink ref="U37" r:id="rId91"/>
-    <hyperlink ref="T38" r:id="rId92"/>
-    <hyperlink ref="U38" r:id="rId93"/>
-    <hyperlink ref="T39" r:id="rId94"/>
-    <hyperlink ref="U39" r:id="rId95"/>
-    <hyperlink ref="T40" r:id="rId96"/>
-    <hyperlink ref="U40" r:id="rId97"/>
-    <hyperlink ref="T41" r:id="rId98"/>
-    <hyperlink ref="U41" r:id="rId99"/>
-    <hyperlink ref="T42" r:id="rId100"/>
-    <hyperlink ref="U42" r:id="rId101"/>
-    <hyperlink ref="T43" r:id="rId102"/>
-    <hyperlink ref="U43" r:id="rId103"/>
-    <hyperlink ref="T44" r:id="rId104"/>
-    <hyperlink ref="U44" r:id="rId105"/>
-    <hyperlink ref="T45" r:id="rId106"/>
-    <hyperlink ref="U45" r:id="rId107"/>
-    <hyperlink ref="T46" r:id="rId108"/>
-    <hyperlink ref="U46" r:id="rId109"/>
-    <hyperlink ref="T47" r:id="rId110"/>
-    <hyperlink ref="U47" r:id="rId111"/>
-    <hyperlink ref="T48" r:id="rId112"/>
-    <hyperlink ref="U48" r:id="rId113"/>
-    <hyperlink ref="T49" r:id="rId114"/>
-    <hyperlink ref="U49" r:id="rId115"/>
-    <hyperlink ref="T50" r:id="rId116"/>
-    <hyperlink ref="U50" r:id="rId117"/>
-    <hyperlink ref="T51" r:id="rId118"/>
-    <hyperlink ref="U51" r:id="rId119"/>
-    <hyperlink ref="T52" r:id="rId120"/>
-    <hyperlink ref="U52" r:id="rId121"/>
-    <hyperlink ref="T53" r:id="rId122"/>
-    <hyperlink ref="U53" r:id="rId123"/>
-    <hyperlink ref="T54" r:id="rId124"/>
-    <hyperlink ref="U54" r:id="rId125"/>
-    <hyperlink ref="T55" r:id="rId126"/>
-    <hyperlink ref="U55" r:id="rId127"/>
-    <hyperlink ref="T56" r:id="rId128"/>
-    <hyperlink ref="U56" r:id="rId129"/>
-    <hyperlink ref="T57" r:id="rId130"/>
-    <hyperlink ref="U57" r:id="rId131"/>
-    <hyperlink ref="T58" r:id="rId132"/>
-    <hyperlink ref="U58" r:id="rId133"/>
-    <hyperlink ref="T59" r:id="rId134"/>
-    <hyperlink ref="U59" r:id="rId135"/>
-    <hyperlink ref="T60" r:id="rId136"/>
-    <hyperlink ref="U60" r:id="rId137"/>
-    <hyperlink ref="T61" r:id="rId138"/>
-    <hyperlink ref="U61" r:id="rId139"/>
-    <hyperlink ref="T62" r:id="rId140"/>
-    <hyperlink ref="U62" r:id="rId141"/>
-    <hyperlink ref="T63" r:id="rId142"/>
-    <hyperlink ref="U63" r:id="rId143"/>
-    <hyperlink ref="T64" r:id="rId144"/>
-    <hyperlink ref="U64" r:id="rId145"/>
-    <hyperlink ref="T65" r:id="rId146"/>
-    <hyperlink ref="U65" r:id="rId147"/>
-    <hyperlink ref="T66" r:id="rId148"/>
-    <hyperlink ref="U66" r:id="rId149"/>
-    <hyperlink ref="T67" r:id="rId150"/>
-    <hyperlink ref="U67" r:id="rId151"/>
-    <hyperlink ref="T68" r:id="rId152"/>
-    <hyperlink ref="U68" r:id="rId153"/>
-    <hyperlink ref="T69" r:id="rId154"/>
-    <hyperlink ref="U69" r:id="rId155"/>
-    <hyperlink ref="T70" r:id="rId156"/>
-    <hyperlink ref="U70" r:id="rId157"/>
-    <hyperlink ref="T71" r:id="rId158"/>
-    <hyperlink ref="U71" r:id="rId159"/>
-    <hyperlink ref="T72" r:id="rId160"/>
-    <hyperlink ref="U72" r:id="rId161"/>
-    <hyperlink ref="T73" r:id="rId162"/>
-    <hyperlink ref="U73" r:id="rId163"/>
-    <hyperlink ref="T74" r:id="rId164"/>
-    <hyperlink ref="U74" r:id="rId165"/>
-    <hyperlink ref="T75" r:id="rId166"/>
-    <hyperlink ref="U75" r:id="rId167"/>
-    <hyperlink ref="T76" r:id="rId168"/>
-    <hyperlink ref="U76" r:id="rId169"/>
-    <hyperlink ref="T77" r:id="rId170"/>
-    <hyperlink ref="U77" r:id="rId171"/>
-    <hyperlink ref="T78" r:id="rId172"/>
-    <hyperlink ref="U78" r:id="rId173"/>
-    <hyperlink ref="T79" r:id="rId174"/>
-    <hyperlink ref="U79" r:id="rId175"/>
-    <hyperlink ref="T80" r:id="rId176"/>
-    <hyperlink ref="U80" r:id="rId177"/>
-    <hyperlink ref="T81" r:id="rId178"/>
-    <hyperlink ref="U81" r:id="rId179"/>
-    <hyperlink ref="T82" r:id="rId180"/>
-    <hyperlink ref="U82" r:id="rId181"/>
-    <hyperlink ref="T83" r:id="rId182"/>
-    <hyperlink ref="U83" r:id="rId183"/>
-    <hyperlink ref="T84" r:id="rId184"/>
-    <hyperlink ref="U84" r:id="rId185"/>
-    <hyperlink ref="T85" r:id="rId186"/>
-    <hyperlink ref="U85" r:id="rId187"/>
-    <hyperlink ref="T86" r:id="rId188"/>
-    <hyperlink ref="U86" r:id="rId189"/>
-    <hyperlink ref="T87" r:id="rId190"/>
-    <hyperlink ref="U87" r:id="rId191"/>
-    <hyperlink ref="T88" r:id="rId192"/>
-    <hyperlink ref="U88" r:id="rId193"/>
-    <hyperlink ref="T89" r:id="rId194"/>
-    <hyperlink ref="U89" r:id="rId195"/>
-    <hyperlink ref="T90" r:id="rId196"/>
-    <hyperlink ref="U90" r:id="rId197"/>
-    <hyperlink ref="T91" r:id="rId198"/>
-    <hyperlink ref="U91" r:id="rId199"/>
-    <hyperlink ref="T92" r:id="rId200"/>
-    <hyperlink ref="U92" r:id="rId201"/>
-    <hyperlink ref="T93" r:id="rId202"/>
-    <hyperlink ref="U93" r:id="rId203"/>
-    <hyperlink ref="T94" r:id="rId204"/>
-    <hyperlink ref="U94" r:id="rId205"/>
-    <hyperlink ref="T95" r:id="rId206"/>
-    <hyperlink ref="U95" r:id="rId207"/>
-    <hyperlink ref="T96" r:id="rId208"/>
-    <hyperlink ref="U96" r:id="rId209"/>
-    <hyperlink ref="T97" r:id="rId210"/>
-    <hyperlink ref="U97" r:id="rId211"/>
-    <hyperlink ref="T98" r:id="rId212"/>
-    <hyperlink ref="U98" r:id="rId213"/>
-    <hyperlink ref="T99" r:id="rId214"/>
-    <hyperlink ref="U99" r:id="rId215"/>
-    <hyperlink ref="T100" r:id="rId216"/>
-    <hyperlink ref="U100" r:id="rId217"/>
-    <hyperlink ref="T101" r:id="rId218"/>
-    <hyperlink ref="U101" r:id="rId219"/>
-    <hyperlink ref="T102" r:id="rId220"/>
-    <hyperlink ref="U102" r:id="rId221"/>
-    <hyperlink ref="T103" r:id="rId222"/>
-    <hyperlink ref="U103" r:id="rId223"/>
-    <hyperlink ref="T104" r:id="rId224"/>
-    <hyperlink ref="U104" r:id="rId225"/>
-    <hyperlink ref="T105" r:id="rId226"/>
-    <hyperlink ref="U105" r:id="rId227"/>
-    <hyperlink ref="T106" r:id="rId228"/>
-    <hyperlink ref="U106" r:id="rId229"/>
-    <hyperlink ref="T107" r:id="rId230"/>
-    <hyperlink ref="U107" r:id="rId231"/>
-    <hyperlink ref="T108" r:id="rId232"/>
-    <hyperlink ref="U108" r:id="rId233"/>
-    <hyperlink ref="T109" r:id="rId234"/>
-    <hyperlink ref="U109" r:id="rId235"/>
-    <hyperlink ref="T110" r:id="rId236"/>
-    <hyperlink ref="U110" r:id="rId237"/>
-    <hyperlink ref="T111" r:id="rId238"/>
-    <hyperlink ref="U111" r:id="rId239"/>
-    <hyperlink ref="T112" r:id="rId240"/>
-    <hyperlink ref="U112" r:id="rId241"/>
-    <hyperlink ref="T113" r:id="rId242"/>
-    <hyperlink ref="U113" r:id="rId243"/>
-    <hyperlink ref="T114" r:id="rId244"/>
-    <hyperlink ref="U114" r:id="rId245"/>
-    <hyperlink ref="T115" r:id="rId246"/>
-    <hyperlink ref="U115" r:id="rId247"/>
-    <hyperlink ref="T116" r:id="rId248"/>
-    <hyperlink ref="U116" r:id="rId249"/>
-    <hyperlink ref="T117" r:id="rId250"/>
-    <hyperlink ref="U117" r:id="rId251"/>
-    <hyperlink ref="T118" r:id="rId252"/>
-    <hyperlink ref="U118" r:id="rId253"/>
-    <hyperlink ref="T119" r:id="rId254"/>
-    <hyperlink ref="U119" r:id="rId255"/>
-    <hyperlink ref="T120" r:id="rId256"/>
-    <hyperlink ref="U120" r:id="rId257"/>
-    <hyperlink ref="T121" r:id="rId258"/>
-    <hyperlink ref="U121" r:id="rId259"/>
-    <hyperlink ref="T122" r:id="rId260"/>
-    <hyperlink ref="U122" r:id="rId261"/>
-    <hyperlink ref="T123" r:id="rId262"/>
-    <hyperlink ref="U123" r:id="rId263"/>
-    <hyperlink ref="T124" r:id="rId264"/>
-    <hyperlink ref="U124" r:id="rId265"/>
-    <hyperlink ref="T125" r:id="rId266"/>
-    <hyperlink ref="U125" r:id="rId267"/>
-    <hyperlink ref="T126" r:id="rId268"/>
-    <hyperlink ref="U126" r:id="rId269"/>
-    <hyperlink ref="T127" r:id="rId270"/>
-    <hyperlink ref="U127" r:id="rId271"/>
-    <hyperlink ref="T128" r:id="rId272"/>
-    <hyperlink ref="U128" r:id="rId273"/>
-    <hyperlink ref="T129" r:id="rId274"/>
-    <hyperlink ref="U129" r:id="rId275"/>
-    <hyperlink ref="T130" r:id="rId276"/>
-    <hyperlink ref="U130" r:id="rId277"/>
-    <hyperlink ref="T131" r:id="rId278"/>
-    <hyperlink ref="U131" r:id="rId279"/>
-    <hyperlink ref="T132" r:id="rId280"/>
-    <hyperlink ref="U132" r:id="rId281"/>
-    <hyperlink ref="T133" r:id="rId282"/>
-    <hyperlink ref="U133" r:id="rId283"/>
-    <hyperlink ref="T134" r:id="rId284"/>
-    <hyperlink ref="U134" r:id="rId285"/>
-    <hyperlink ref="T135" r:id="rId286"/>
-    <hyperlink ref="U135" r:id="rId287"/>
-    <hyperlink ref="T136" r:id="rId288"/>
-    <hyperlink ref="U136" r:id="rId289"/>
-    <hyperlink ref="T137" r:id="rId290"/>
-    <hyperlink ref="U137" r:id="rId291"/>
-    <hyperlink ref="T138" r:id="rId292"/>
-    <hyperlink ref="U138" r:id="rId293"/>
-    <hyperlink ref="T139" r:id="rId294"/>
-    <hyperlink ref="U139" r:id="rId295"/>
-    <hyperlink ref="T140" r:id="rId296"/>
-    <hyperlink ref="U140" r:id="rId297"/>
-    <hyperlink ref="T141" r:id="rId298"/>
-    <hyperlink ref="U141" r:id="rId299"/>
-    <hyperlink ref="T142" r:id="rId300"/>
-    <hyperlink ref="U142" r:id="rId301"/>
-    <hyperlink ref="T143" r:id="rId302"/>
-    <hyperlink ref="U143" r:id="rId303"/>
-    <hyperlink ref="T144" r:id="rId304"/>
-    <hyperlink ref="U144" r:id="rId305"/>
-    <hyperlink ref="T145" r:id="rId306"/>
-    <hyperlink ref="U145" r:id="rId307"/>
-    <hyperlink ref="T146" r:id="rId308"/>
-    <hyperlink ref="U146" r:id="rId309"/>
-    <hyperlink ref="T147" r:id="rId310"/>
-    <hyperlink ref="U147" r:id="rId311"/>
-    <hyperlink ref="T148" r:id="rId312"/>
-    <hyperlink ref="U148" r:id="rId313"/>
-    <hyperlink ref="T149" r:id="rId314"/>
-    <hyperlink ref="U149" r:id="rId315"/>
-    <hyperlink ref="T150" r:id="rId316"/>
-    <hyperlink ref="U150" r:id="rId317"/>
-    <hyperlink ref="T151" r:id="rId318"/>
-    <hyperlink ref="U151" r:id="rId319"/>
-    <hyperlink ref="T152" r:id="rId320"/>
-    <hyperlink ref="U152" r:id="rId321"/>
-    <hyperlink ref="T153" r:id="rId322"/>
-    <hyperlink ref="U153" r:id="rId323"/>
-    <hyperlink ref="T154" r:id="rId324"/>
-    <hyperlink ref="U154" r:id="rId325"/>
-    <hyperlink ref="T155" r:id="rId326"/>
-    <hyperlink ref="U155" r:id="rId327"/>
-    <hyperlink ref="T156" r:id="rId328"/>
-    <hyperlink ref="U156" r:id="rId329"/>
-    <hyperlink ref="T157" r:id="rId330"/>
-    <hyperlink ref="U157" r:id="rId331"/>
-    <hyperlink ref="T158" r:id="rId332"/>
-    <hyperlink ref="U158" r:id="rId333"/>
-    <hyperlink ref="T159" r:id="rId334"/>
-    <hyperlink ref="U159" r:id="rId335"/>
-    <hyperlink ref="T160" r:id="rId336"/>
-    <hyperlink ref="U160" r:id="rId337"/>
-    <hyperlink ref="T161" r:id="rId338"/>
-    <hyperlink ref="U161" r:id="rId339"/>
-    <hyperlink ref="T162" r:id="rId340"/>
-    <hyperlink ref="U162" r:id="rId341"/>
-    <hyperlink ref="T163" r:id="rId342"/>
-    <hyperlink ref="U163" r:id="rId343"/>
-    <hyperlink ref="T164" r:id="rId344"/>
-    <hyperlink ref="U164" r:id="rId345"/>
-    <hyperlink ref="T165" r:id="rId346"/>
-    <hyperlink ref="U165" r:id="rId347"/>
-    <hyperlink ref="T166" r:id="rId348"/>
-    <hyperlink ref="U166" r:id="rId349"/>
-    <hyperlink ref="T167" r:id="rId350"/>
-    <hyperlink ref="U167" r:id="rId351"/>
-    <hyperlink ref="T168" r:id="rId352"/>
-    <hyperlink ref="U168" r:id="rId353"/>
-    <hyperlink ref="T169" r:id="rId354"/>
-    <hyperlink ref="U169" r:id="rId355"/>
-    <hyperlink ref="T170" r:id="rId356"/>
-    <hyperlink ref="U170" r:id="rId357"/>
-    <hyperlink ref="T171" r:id="rId358"/>
-    <hyperlink ref="U171" r:id="rId359"/>
-    <hyperlink ref="T172" r:id="rId360"/>
-    <hyperlink ref="U172" r:id="rId361"/>
-    <hyperlink ref="T173" r:id="rId362"/>
-    <hyperlink ref="U173" r:id="rId363"/>
-    <hyperlink ref="T174" r:id="rId364"/>
-    <hyperlink ref="U174" r:id="rId365"/>
-    <hyperlink ref="T175" r:id="rId366"/>
-    <hyperlink ref="U175" r:id="rId367"/>
-    <hyperlink ref="T176" r:id="rId368"/>
-    <hyperlink ref="U176" r:id="rId369"/>
-    <hyperlink ref="T177" r:id="rId370"/>
-    <hyperlink ref="U177" r:id="rId371"/>
-    <hyperlink ref="T178" r:id="rId372"/>
-    <hyperlink ref="U178" r:id="rId373"/>
-    <hyperlink ref="T179" r:id="rId374"/>
-    <hyperlink ref="U179" r:id="rId375"/>
-    <hyperlink ref="T180" r:id="rId376"/>
-    <hyperlink ref="U180" r:id="rId377"/>
-    <hyperlink ref="T181" r:id="rId378"/>
-    <hyperlink ref="U181" r:id="rId379"/>
-    <hyperlink ref="T182" r:id="rId380"/>
-    <hyperlink ref="U182" r:id="rId381"/>
-    <hyperlink ref="T183" r:id="rId382"/>
-    <hyperlink ref="U183" r:id="rId383"/>
-    <hyperlink ref="T184" r:id="rId384"/>
-    <hyperlink ref="U184" r:id="rId385"/>
-    <hyperlink ref="T185" r:id="rId386"/>
-    <hyperlink ref="U185" r:id="rId387"/>
-    <hyperlink ref="T186" r:id="rId388"/>
-    <hyperlink ref="U186" r:id="rId389"/>
-    <hyperlink ref="T187" r:id="rId390"/>
-    <hyperlink ref="U187" r:id="rId391"/>
-    <hyperlink ref="T188" r:id="rId392"/>
-    <hyperlink ref="U188" r:id="rId393"/>
-    <hyperlink ref="T189" r:id="rId394"/>
-    <hyperlink ref="U189" r:id="rId395"/>
-    <hyperlink ref="T190" r:id="rId396"/>
-    <hyperlink ref="U190" r:id="rId397"/>
-    <hyperlink ref="T191" r:id="rId398"/>
-    <hyperlink ref="U191" r:id="rId399"/>
-    <hyperlink ref="T192" r:id="rId400"/>
-    <hyperlink ref="U192" r:id="rId401"/>
-    <hyperlink ref="T193" r:id="rId402"/>
-    <hyperlink ref="U193" r:id="rId403"/>
-    <hyperlink ref="T194" r:id="rId404"/>
-    <hyperlink ref="U194" r:id="rId405"/>
-    <hyperlink ref="T195" r:id="rId406"/>
-    <hyperlink ref="U195" r:id="rId407"/>
-    <hyperlink ref="T196" r:id="rId408"/>
-    <hyperlink ref="U196" r:id="rId409"/>
-    <hyperlink ref="T197" r:id="rId410"/>
-    <hyperlink ref="U197" r:id="rId411"/>
-    <hyperlink ref="T198" r:id="rId412"/>
-    <hyperlink ref="U198" r:id="rId413"/>
-    <hyperlink ref="T199" r:id="rId414"/>
-    <hyperlink ref="U199" r:id="rId415"/>
-    <hyperlink ref="T200" r:id="rId416"/>
-    <hyperlink ref="U200" r:id="rId417"/>
-    <hyperlink ref="T201" r:id="rId418"/>
-    <hyperlink ref="U201" r:id="rId419"/>
-    <hyperlink ref="T202" r:id="rId420"/>
-    <hyperlink ref="U202" r:id="rId421"/>
-    <hyperlink ref="T203" r:id="rId422"/>
-    <hyperlink ref="U203" r:id="rId423"/>
-    <hyperlink ref="T204" r:id="rId424"/>
-    <hyperlink ref="U204" r:id="rId425"/>
-    <hyperlink ref="T205" r:id="rId426"/>
-    <hyperlink ref="U205" r:id="rId427"/>
-    <hyperlink ref="T206" r:id="rId428"/>
-    <hyperlink ref="U206" r:id="rId429"/>
-    <hyperlink ref="T207" r:id="rId430"/>
-    <hyperlink ref="U207" r:id="rId431"/>
-    <hyperlink ref="T208" r:id="rId432"/>
-    <hyperlink ref="U208" r:id="rId433"/>
-    <hyperlink ref="T209" r:id="rId434"/>
-    <hyperlink ref="U209" r:id="rId435"/>
-    <hyperlink ref="T210" r:id="rId436"/>
-    <hyperlink ref="U210" r:id="rId437"/>
-    <hyperlink ref="T211" r:id="rId438"/>
-    <hyperlink ref="U211" r:id="rId439"/>
-    <hyperlink ref="T212" r:id="rId440"/>
-    <hyperlink ref="U212" r:id="rId441"/>
-    <hyperlink ref="T213" r:id="rId442"/>
-    <hyperlink ref="U213" r:id="rId443"/>
-    <hyperlink ref="T214" r:id="rId444"/>
-    <hyperlink ref="U214" r:id="rId445"/>
-    <hyperlink ref="T215" r:id="rId446"/>
-    <hyperlink ref="U215" r:id="rId447"/>
-    <hyperlink ref="T216" r:id="rId448"/>
-    <hyperlink ref="U216" r:id="rId449"/>
-    <hyperlink ref="T217" r:id="rId450"/>
-    <hyperlink ref="U217" r:id="rId451"/>
-    <hyperlink ref="T218" r:id="rId452"/>
-    <hyperlink ref="U218" r:id="rId453"/>
-    <hyperlink ref="T219" r:id="rId454"/>
-    <hyperlink ref="U219" r:id="rId455"/>
-    <hyperlink ref="T220" r:id="rId456"/>
-    <hyperlink ref="U220" r:id="rId457"/>
-    <hyperlink ref="T221" r:id="rId458"/>
-    <hyperlink ref="U221" r:id="rId459"/>
-    <hyperlink ref="T222" r:id="rId460"/>
-    <hyperlink ref="U222" r:id="rId461"/>
-    <hyperlink ref="T223" r:id="rId462"/>
-    <hyperlink ref="U223" r:id="rId463"/>
-    <hyperlink ref="T224" r:id="rId464"/>
-    <hyperlink ref="U224" r:id="rId465"/>
-    <hyperlink ref="T225" r:id="rId466"/>
-    <hyperlink ref="U225" r:id="rId467"/>
-    <hyperlink ref="T226" r:id="rId468"/>
-    <hyperlink ref="U226" r:id="rId469"/>
-    <hyperlink ref="T227" r:id="rId470"/>
-    <hyperlink ref="U227" r:id="rId471"/>
-    <hyperlink ref="T228" r:id="rId472"/>
-    <hyperlink ref="U228" r:id="rId473"/>
-    <hyperlink ref="T229" r:id="rId474"/>
-    <hyperlink ref="U229" r:id="rId475"/>
-    <hyperlink ref="T230" r:id="rId476"/>
-    <hyperlink ref="U230" r:id="rId477"/>
-    <hyperlink ref="T231" r:id="rId478"/>
-    <hyperlink ref="U231" r:id="rId479"/>
-    <hyperlink ref="T232" r:id="rId480"/>
-    <hyperlink ref="U232" r:id="rId481"/>
-    <hyperlink ref="T233" r:id="rId482"/>
-    <hyperlink ref="U233" r:id="rId483"/>
-    <hyperlink ref="T234" r:id="rId484"/>
-    <hyperlink ref="U234" r:id="rId485"/>
-    <hyperlink ref="T235" r:id="rId486"/>
-    <hyperlink ref="U235" r:id="rId487"/>
-    <hyperlink ref="T236" r:id="rId488"/>
-    <hyperlink ref="U236" r:id="rId489"/>
-    <hyperlink ref="T237" r:id="rId490"/>
-    <hyperlink ref="U237" r:id="rId491"/>
-    <hyperlink ref="T238" r:id="rId492"/>
-    <hyperlink ref="U238" r:id="rId493"/>
-    <hyperlink ref="T239" r:id="rId494"/>
-    <hyperlink ref="U239" r:id="rId495"/>
-    <hyperlink ref="T240" r:id="rId496"/>
-    <hyperlink ref="U240" r:id="rId497"/>
-    <hyperlink ref="T241" r:id="rId498"/>
-    <hyperlink ref="U241" r:id="rId499"/>
-    <hyperlink ref="T242" r:id="rId500"/>
-    <hyperlink ref="U242" r:id="rId501"/>
-    <hyperlink ref="T243" r:id="rId502"/>
-    <hyperlink ref="U243" r:id="rId503"/>
-    <hyperlink ref="T244" r:id="rId504"/>
-    <hyperlink ref="U244" r:id="rId505"/>
-    <hyperlink ref="T245" r:id="rId506"/>
-    <hyperlink ref="U245" r:id="rId507"/>
-    <hyperlink ref="T246" r:id="rId508"/>
-    <hyperlink ref="U246" r:id="rId509"/>
-    <hyperlink ref="T247" r:id="rId510"/>
-    <hyperlink ref="U247" r:id="rId511"/>
-    <hyperlink ref="T248" r:id="rId512"/>
-    <hyperlink ref="U248" r:id="rId513"/>
-    <hyperlink ref="T249" r:id="rId514"/>
-    <hyperlink ref="U249" r:id="rId515"/>
-    <hyperlink ref="T250" r:id="rId516"/>
-    <hyperlink ref="U250" r:id="rId517"/>
-    <hyperlink ref="T251" r:id="rId518"/>
-    <hyperlink ref="U251" r:id="rId519"/>
-    <hyperlink ref="T252" r:id="rId520"/>
-    <hyperlink ref="U252" r:id="rId521"/>
-    <hyperlink ref="T253" r:id="rId522"/>
-    <hyperlink ref="U253" r:id="rId523"/>
-    <hyperlink ref="T254" r:id="rId524"/>
-    <hyperlink ref="U254" r:id="rId525"/>
-    <hyperlink ref="T255" r:id="rId526"/>
-    <hyperlink ref="U255" r:id="rId527"/>
-    <hyperlink ref="T256" r:id="rId528"/>
-    <hyperlink ref="U256" r:id="rId529"/>
-    <hyperlink ref="T257" r:id="rId530"/>
-    <hyperlink ref="U257" r:id="rId531"/>
-    <hyperlink ref="T258" r:id="rId532"/>
-    <hyperlink ref="U258" r:id="rId533"/>
-    <hyperlink ref="T259" r:id="rId534"/>
-    <hyperlink ref="U259" r:id="rId535"/>
-    <hyperlink ref="T260" r:id="rId536"/>
-    <hyperlink ref="U260" r:id="rId537"/>
-    <hyperlink ref="T261" r:id="rId538"/>
-    <hyperlink ref="U261" r:id="rId539"/>
-    <hyperlink ref="T262" r:id="rId540"/>
-    <hyperlink ref="U262" r:id="rId541"/>
-    <hyperlink ref="T263" r:id="rId542"/>
-    <hyperlink ref="U263" r:id="rId543"/>
-    <hyperlink ref="T264" r:id="rId544"/>
-    <hyperlink ref="U264" r:id="rId545"/>
-    <hyperlink ref="T265" r:id="rId546"/>
-    <hyperlink ref="U265" r:id="rId547"/>
-    <hyperlink ref="T266" r:id="rId548"/>
-    <hyperlink ref="U266" r:id="rId549"/>
-    <hyperlink ref="T267" r:id="rId550"/>
-    <hyperlink ref="U267" r:id="rId551"/>
-    <hyperlink ref="T268" r:id="rId552"/>
-    <hyperlink ref="U268" r:id="rId553"/>
-    <hyperlink ref="T269" r:id="rId554"/>
-    <hyperlink ref="U269" r:id="rId555"/>
-    <hyperlink ref="T270" r:id="rId556"/>
-    <hyperlink ref="U270" r:id="rId557"/>
-    <hyperlink ref="T271" r:id="rId558"/>
-    <hyperlink ref="U271" r:id="rId559"/>
-    <hyperlink ref="T272" r:id="rId560"/>
-    <hyperlink ref="U272" r:id="rId561"/>
-    <hyperlink ref="T273" r:id="rId562"/>
-    <hyperlink ref="U273" r:id="rId563"/>
-    <hyperlink ref="T274" r:id="rId564"/>
-    <hyperlink ref="U274" r:id="rId565"/>
-    <hyperlink ref="T275" r:id="rId566"/>
-    <hyperlink ref="U275" r:id="rId567"/>
-    <hyperlink ref="T276" r:id="rId568"/>
-    <hyperlink ref="U276" r:id="rId569"/>
-    <hyperlink ref="T277" r:id="rId570"/>
-    <hyperlink ref="U277" r:id="rId571"/>
-    <hyperlink ref="T278" r:id="rId572"/>
-    <hyperlink ref="U278" r:id="rId573"/>
-    <hyperlink ref="T279" r:id="rId574"/>
-    <hyperlink ref="U279" r:id="rId575"/>
-    <hyperlink ref="T280" r:id="rId576"/>
-    <hyperlink ref="U280" r:id="rId577"/>
-    <hyperlink ref="T281" r:id="rId578"/>
-    <hyperlink ref="U281" r:id="rId579"/>
-    <hyperlink ref="T282" r:id="rId580"/>
-    <hyperlink ref="U282" r:id="rId581"/>
-    <hyperlink ref="T283" r:id="rId582"/>
-    <hyperlink ref="U283" r:id="rId583"/>
-    <hyperlink ref="T284" r:id="rId584"/>
-    <hyperlink ref="U284" r:id="rId585"/>
-    <hyperlink ref="T285" r:id="rId586"/>
-    <hyperlink ref="U285" r:id="rId587"/>
-    <hyperlink ref="T286" r:id="rId588"/>
-    <hyperlink ref="U286" r:id="rId589"/>
-    <hyperlink ref="T287" r:id="rId590"/>
-    <hyperlink ref="U287" r:id="rId591"/>
-    <hyperlink ref="T288" r:id="rId592"/>
-    <hyperlink ref="U288" r:id="rId593"/>
-    <hyperlink ref="T289" r:id="rId594"/>
-    <hyperlink ref="U289" r:id="rId595"/>
-    <hyperlink ref="T290" r:id="rId596"/>
-    <hyperlink ref="U290" r:id="rId597"/>
-    <hyperlink ref="T291" r:id="rId598"/>
-    <hyperlink ref="U291" r:id="rId599"/>
-    <hyperlink ref="T292" r:id="rId600"/>
-    <hyperlink ref="U292" r:id="rId601"/>
-    <hyperlink ref="T293" r:id="rId602"/>
-    <hyperlink ref="U293" r:id="rId603"/>
-    <hyperlink ref="T294" r:id="rId604"/>
-    <hyperlink ref="U294" r:id="rId605"/>
-    <hyperlink ref="T295" r:id="rId606"/>
-    <hyperlink ref="U295" r:id="rId607"/>
-    <hyperlink ref="T296" r:id="rId608"/>
-    <hyperlink ref="U296" r:id="rId609"/>
-    <hyperlink ref="T297" r:id="rId610"/>
-    <hyperlink ref="U297" r:id="rId611"/>
-    <hyperlink ref="T298" r:id="rId612"/>
-    <hyperlink ref="U298" r:id="rId613"/>
-    <hyperlink ref="T299" r:id="rId614"/>
-    <hyperlink ref="U299" r:id="rId615"/>
-    <hyperlink ref="T300" r:id="rId616"/>
-    <hyperlink ref="U300" r:id="rId617"/>
-    <hyperlink ref="T301" r:id="rId618"/>
-    <hyperlink ref="U301" r:id="rId619"/>
-    <hyperlink ref="T302" r:id="rId620"/>
-    <hyperlink ref="U302" r:id="rId621"/>
-    <hyperlink ref="T303" r:id="rId622"/>
-    <hyperlink ref="U303" r:id="rId623"/>
-    <hyperlink ref="T304" r:id="rId624"/>
-    <hyperlink ref="U304" r:id="rId625"/>
-    <hyperlink ref="T305" r:id="rId626"/>
-    <hyperlink ref="U305" r:id="rId627"/>
-    <hyperlink ref="T306" r:id="rId628"/>
-    <hyperlink ref="U306" r:id="rId629"/>
-    <hyperlink ref="T307" r:id="rId630"/>
-    <hyperlink ref="U307" r:id="rId631"/>
-    <hyperlink ref="T308" r:id="rId632"/>
-    <hyperlink ref="U308" r:id="rId633"/>
-    <hyperlink ref="T309" r:id="rId634"/>
-    <hyperlink ref="U309" r:id="rId635"/>
-    <hyperlink ref="T310" r:id="rId636"/>
-    <hyperlink ref="U310" r:id="rId637"/>
-    <hyperlink ref="T311" r:id="rId638"/>
-    <hyperlink ref="U311" r:id="rId639"/>
-    <hyperlink ref="T312" r:id="rId640"/>
-    <hyperlink ref="U312" r:id="rId641"/>
-    <hyperlink ref="T313" r:id="rId642"/>
-    <hyperlink ref="U313" r:id="rId643"/>
-    <hyperlink ref="T314" r:id="rId644"/>
-    <hyperlink ref="U314" r:id="rId645"/>
-    <hyperlink ref="T315" r:id="rId646"/>
-    <hyperlink ref="U315" r:id="rId647"/>
-    <hyperlink ref="T316" r:id="rId648"/>
-    <hyperlink ref="U316" r:id="rId649"/>
-    <hyperlink ref="T317" r:id="rId650"/>
-    <hyperlink ref="U317" r:id="rId651"/>
-    <hyperlink ref="T318" r:id="rId652"/>
-    <hyperlink ref="U318" r:id="rId653"/>
-    <hyperlink ref="T319" r:id="rId654"/>
-    <hyperlink ref="U319" r:id="rId655"/>
-    <hyperlink ref="T320" r:id="rId656"/>
-    <hyperlink ref="U320" r:id="rId657"/>
-    <hyperlink ref="T321" r:id="rId658"/>
-    <hyperlink ref="U321" r:id="rId659"/>
-    <hyperlink ref="T322" r:id="rId660"/>
-    <hyperlink ref="U322" r:id="rId661"/>
-    <hyperlink ref="T323" r:id="rId662"/>
-    <hyperlink ref="U323" r:id="rId663"/>
-    <hyperlink ref="T324" r:id="rId664"/>
-    <hyperlink ref="U324" r:id="rId665"/>
-    <hyperlink ref="T325" r:id="rId666"/>
-    <hyperlink ref="U325" r:id="rId667"/>
-    <hyperlink ref="T326" r:id="rId668"/>
-    <hyperlink ref="U326" r:id="rId669"/>
-    <hyperlink ref="T327" r:id="rId670"/>
-    <hyperlink ref="U327" r:id="rId671"/>
-    <hyperlink ref="T328" r:id="rId672"/>
-    <hyperlink ref="U328" r:id="rId673"/>
-    <hyperlink ref="T329" r:id="rId674"/>
-    <hyperlink ref="U329" r:id="rId675"/>
-    <hyperlink ref="T330" r:id="rId676"/>
-    <hyperlink ref="U330" r:id="rId677"/>
-    <hyperlink ref="T331" r:id="rId678"/>
-    <hyperlink ref="U331" r:id="rId679"/>
-    <hyperlink ref="T332" r:id="rId680"/>
-    <hyperlink ref="U332" r:id="rId681"/>
-    <hyperlink ref="T333" r:id="rId682"/>
-    <hyperlink ref="U333" r:id="rId683"/>
-    <hyperlink ref="T334" r:id="rId684"/>
-    <hyperlink ref="U334" r:id="rId685"/>
-    <hyperlink ref="T335" r:id="rId686"/>
-    <hyperlink ref="U335" r:id="rId687"/>
-    <hyperlink ref="T336" r:id="rId688"/>
-    <hyperlink ref="U336" r:id="rId689"/>
-    <hyperlink ref="T337" r:id="rId690"/>
-    <hyperlink ref="U337" r:id="rId691"/>
-    <hyperlink ref="T338" r:id="rId692"/>
-    <hyperlink ref="U338" r:id="rId693"/>
-    <hyperlink ref="T339" r:id="rId694"/>
-    <hyperlink ref="U339" r:id="rId695"/>
-    <hyperlink ref="T340" r:id="rId696"/>
-    <hyperlink ref="U340" r:id="rId697"/>
-    <hyperlink ref="T341" r:id="rId698"/>
-    <hyperlink ref="U341" r:id="rId699"/>
-    <hyperlink ref="T342" r:id="rId700"/>
-    <hyperlink ref="U342" r:id="rId701"/>
-    <hyperlink ref="T343" r:id="rId702"/>
-    <hyperlink ref="U343" r:id="rId703"/>
-    <hyperlink ref="T344" r:id="rId704"/>
-    <hyperlink ref="U344" r:id="rId705"/>
-    <hyperlink ref="T345" r:id="rId706"/>
-    <hyperlink ref="U345" r:id="rId707"/>
-    <hyperlink ref="T346" r:id="rId708"/>
-    <hyperlink ref="U346" r:id="rId709"/>
-    <hyperlink ref="T347" r:id="rId710"/>
-    <hyperlink ref="U347" r:id="rId711"/>
-    <hyperlink ref="T348" r:id="rId712"/>
-    <hyperlink ref="U348" r:id="rId713"/>
-    <hyperlink ref="T349" r:id="rId714"/>
-    <hyperlink ref="U349" r:id="rId715"/>
-    <hyperlink ref="T350" r:id="rId716"/>
-    <hyperlink ref="U350" r:id="rId717"/>
-    <hyperlink ref="T351" r:id="rId718"/>
-    <hyperlink ref="U351" r:id="rId719"/>
-    <hyperlink ref="T352" r:id="rId720"/>
-    <hyperlink ref="U352" r:id="rId721"/>
-    <hyperlink ref="T353" r:id="rId722"/>
-    <hyperlink ref="U353" r:id="rId723"/>
-    <hyperlink ref="T354" r:id="rId724"/>
-    <hyperlink ref="U354" r:id="rId725"/>
-    <hyperlink ref="T355" r:id="rId726"/>
-    <hyperlink ref="U355" r:id="rId727"/>
-    <hyperlink ref="T356" r:id="rId728"/>
-    <hyperlink ref="U356" r:id="rId729"/>
-    <hyperlink ref="T357" r:id="rId730"/>
-    <hyperlink ref="U357" r:id="rId731"/>
-    <hyperlink ref="T358" r:id="rId732"/>
-    <hyperlink ref="U358" r:id="rId733"/>
-    <hyperlink ref="T359" r:id="rId734"/>
-    <hyperlink ref="U359" r:id="rId735"/>
-    <hyperlink ref="T360" r:id="rId736"/>
-    <hyperlink ref="U360" r:id="rId737"/>
-    <hyperlink ref="T361" r:id="rId738"/>
-    <hyperlink ref="U361" r:id="rId739"/>
-    <hyperlink ref="T362" r:id="rId740"/>
-    <hyperlink ref="U362" r:id="rId741"/>
-    <hyperlink ref="T363" r:id="rId742"/>
-    <hyperlink ref="U363" r:id="rId743"/>
-    <hyperlink ref="T364" r:id="rId744"/>
-    <hyperlink ref="U364" r:id="rId745"/>
-    <hyperlink ref="T365" r:id="rId746"/>
-    <hyperlink ref="U365" r:id="rId747"/>
-    <hyperlink ref="T366" r:id="rId748"/>
-    <hyperlink ref="U366" r:id="rId749"/>
-    <hyperlink ref="T367" r:id="rId750"/>
-    <hyperlink ref="U367" r:id="rId751"/>
-    <hyperlink ref="T368" r:id="rId752"/>
-    <hyperlink ref="U368" r:id="rId753"/>
-    <hyperlink ref="T369" r:id="rId754"/>
-    <hyperlink ref="U369" r:id="rId755"/>
-    <hyperlink ref="T370" r:id="rId756"/>
-    <hyperlink ref="U370" r:id="rId757"/>
-    <hyperlink ref="T371" r:id="rId758"/>
-    <hyperlink ref="U371" r:id="rId759"/>
-    <hyperlink ref="T372" r:id="rId760"/>
-    <hyperlink ref="U372" r:id="rId761"/>
-    <hyperlink ref="T373" r:id="rId762"/>
-    <hyperlink ref="U373" r:id="rId763"/>
-    <hyperlink ref="T374" r:id="rId764"/>
-    <hyperlink ref="U374" r:id="rId765"/>
-    <hyperlink ref="T375" r:id="rId766"/>
-    <hyperlink ref="U375" r:id="rId767"/>
-    <hyperlink ref="T376" r:id="rId768"/>
-    <hyperlink ref="U376" r:id="rId769"/>
-    <hyperlink ref="T377" r:id="rId770"/>
-    <hyperlink ref="U377" r:id="rId771"/>
-    <hyperlink ref="T378" r:id="rId772"/>
-    <hyperlink ref="U378" r:id="rId773"/>
-    <hyperlink ref="T379" r:id="rId774"/>
-    <hyperlink ref="U379" r:id="rId775"/>
-    <hyperlink ref="T380" r:id="rId776"/>
-    <hyperlink ref="U380" r:id="rId777"/>
-    <hyperlink ref="T381" r:id="rId778"/>
-    <hyperlink ref="U381" r:id="rId779"/>
-    <hyperlink ref="T382" r:id="rId780"/>
-    <hyperlink ref="U382" r:id="rId781"/>
-    <hyperlink ref="T383" r:id="rId782"/>
-    <hyperlink ref="U383" r:id="rId783"/>
-    <hyperlink ref="T384" r:id="rId784"/>
-    <hyperlink ref="U384" r:id="rId785"/>
-    <hyperlink ref="T385" r:id="rId786"/>
-    <hyperlink ref="U385" r:id="rId787"/>
-    <hyperlink ref="T386" r:id="rId788"/>
-    <hyperlink ref="U386" r:id="rId789"/>
-    <hyperlink ref="T387" r:id="rId790"/>
-    <hyperlink ref="U387" r:id="rId791"/>
-    <hyperlink ref="T388" r:id="rId792"/>
-    <hyperlink ref="U388" r:id="rId793"/>
-    <hyperlink ref="T389" r:id="rId794"/>
-    <hyperlink ref="U389" r:id="rId795"/>
-    <hyperlink ref="T390" r:id="rId796"/>
-    <hyperlink ref="U390" r:id="rId797"/>
-    <hyperlink ref="T391" r:id="rId798"/>
-    <hyperlink ref="U391" r:id="rId799"/>
-    <hyperlink ref="T392" r:id="rId800"/>
-    <hyperlink ref="U392" r:id="rId801"/>
-    <hyperlink ref="T393" r:id="rId802"/>
-    <hyperlink ref="U393" r:id="rId803"/>
-    <hyperlink ref="T394" r:id="rId804"/>
-    <hyperlink ref="U394" r:id="rId805"/>
-    <hyperlink ref="T395" r:id="rId806"/>
-    <hyperlink ref="U395" r:id="rId807"/>
-    <hyperlink ref="T396" r:id="rId808"/>
-    <hyperlink ref="U396" r:id="rId809"/>
-    <hyperlink ref="T397" r:id="rId810"/>
-    <hyperlink ref="U397" r:id="rId811"/>
-    <hyperlink ref="T398" r:id="rId812"/>
-    <hyperlink ref="U398" r:id="rId813"/>
-    <hyperlink ref="T399" r:id="rId814"/>
-    <hyperlink ref="U399" r:id="rId815"/>
-    <hyperlink ref="T400" r:id="rId816"/>
-    <hyperlink ref="U400" r:id="rId817"/>
-    <hyperlink ref="T401" r:id="rId818"/>
-    <hyperlink ref="U401" r:id="rId819"/>
-    <hyperlink ref="T402" r:id="rId820"/>
-    <hyperlink ref="U402" r:id="rId821"/>
-    <hyperlink ref="T403" r:id="rId822"/>
-    <hyperlink ref="U403" r:id="rId823"/>
-    <hyperlink ref="T404" r:id="rId824"/>
-    <hyperlink ref="U404" r:id="rId825"/>
-    <hyperlink ref="T405" r:id="rId826"/>
-    <hyperlink ref="U405" r:id="rId827"/>
-    <hyperlink ref="T406" r:id="rId828"/>
-    <hyperlink ref="U406" r:id="rId829"/>
-    <hyperlink ref="T407" r:id="rId830"/>
-    <hyperlink ref="U407" r:id="rId831"/>
-    <hyperlink ref="T408" r:id="rId832"/>
-    <hyperlink ref="U408" r:id="rId833"/>
-    <hyperlink ref="T409" r:id="rId834"/>
-    <hyperlink ref="U409" r:id="rId835"/>
-    <hyperlink ref="T410" r:id="rId836"/>
-    <hyperlink ref="U410" r:id="rId837"/>
-    <hyperlink ref="T411" r:id="rId838"/>
-    <hyperlink ref="U411" r:id="rId839"/>
-    <hyperlink ref="T412" r:id="rId840"/>
-    <hyperlink ref="U412" r:id="rId841"/>
-    <hyperlink ref="T413" r:id="rId842"/>
-    <hyperlink ref="U413" r:id="rId843"/>
-    <hyperlink ref="T414" r:id="rId844"/>
-    <hyperlink ref="U414" r:id="rId845"/>
-    <hyperlink ref="T415" r:id="rId846"/>
-    <hyperlink ref="U415" r:id="rId847"/>
-    <hyperlink ref="T416" r:id="rId848"/>
-    <hyperlink ref="U416" r:id="rId849"/>
-    <hyperlink ref="T417" r:id="rId850"/>
-    <hyperlink ref="U417" r:id="rId851"/>
-    <hyperlink ref="T418" r:id="rId852"/>
-    <hyperlink ref="U418" r:id="rId853"/>
-    <hyperlink ref="T419" r:id="rId854"/>
-    <hyperlink ref="U419" r:id="rId855"/>
-    <hyperlink ref="T420" r:id="rId856"/>
-    <hyperlink ref="U420" r:id="rId857"/>
-    <hyperlink ref="T421" r:id="rId858"/>
-    <hyperlink ref="U421" r:id="rId859"/>
-    <hyperlink ref="T422" r:id="rId860"/>
-    <hyperlink ref="U422" r:id="rId861"/>
-    <hyperlink ref="T423" r:id="rId862"/>
-    <hyperlink ref="U423" r:id="rId863"/>
-    <hyperlink ref="T424" r:id="rId864"/>
-    <hyperlink ref="U424" r:id="rId865"/>
-    <hyperlink ref="T425" r:id="rId866"/>
-    <hyperlink ref="U425" r:id="rId867"/>
-    <hyperlink ref="T426" r:id="rId868"/>
-    <hyperlink ref="U426" r:id="rId869"/>
-    <hyperlink ref="T427" r:id="rId870"/>
-    <hyperlink ref="U427" r:id="rId871"/>
-    <hyperlink ref="T428" r:id="rId872"/>
-    <hyperlink ref="U428" r:id="rId873"/>
-    <hyperlink ref="T429" r:id="rId874"/>
-    <hyperlink ref="U429" r:id="rId875"/>
-    <hyperlink ref="T430" r:id="rId876"/>
-    <hyperlink ref="U430" r:id="rId877"/>
-    <hyperlink ref="T431" r:id="rId878"/>
-    <hyperlink ref="U431" r:id="rId879"/>
-    <hyperlink ref="T432" r:id="rId880"/>
-    <hyperlink ref="U432" r:id="rId881"/>
-    <hyperlink ref="T433" r:id="rId882"/>
-    <hyperlink ref="U433" r:id="rId883"/>
-    <hyperlink ref="T434" r:id="rId884"/>
-    <hyperlink ref="U434" r:id="rId885"/>
-    <hyperlink ref="T435" r:id="rId886"/>
-    <hyperlink ref="U435" r:id="rId887"/>
-    <hyperlink ref="T436" r:id="rId888"/>
-    <hyperlink ref="U436" r:id="rId889"/>
-    <hyperlink ref="T437" r:id="rId890"/>
-    <hyperlink ref="U437" r:id="rId891"/>
-    <hyperlink ref="T438" r:id="rId892"/>
-    <hyperlink ref="U438" r:id="rId893"/>
-    <hyperlink ref="T439" r:id="rId894"/>
-    <hyperlink ref="U439" r:id="rId895"/>
-    <hyperlink ref="T440" r:id="rId896"/>
-    <hyperlink ref="U440" r:id="rId897"/>
-    <hyperlink ref="T441" r:id="rId898"/>
-    <hyperlink ref="U441" r:id="rId899"/>
-    <hyperlink ref="T442" r:id="rId900"/>
-    <hyperlink ref="U442" r:id="rId901"/>
-    <hyperlink ref="T443" r:id="rId902"/>
-    <hyperlink ref="U443" r:id="rId903"/>
-    <hyperlink ref="T444" r:id="rId904"/>
-    <hyperlink ref="U444" r:id="rId905"/>
-    <hyperlink ref="T445" r:id="rId906"/>
-    <hyperlink ref="U445" r:id="rId907"/>
-    <hyperlink ref="T446" r:id="rId908"/>
-    <hyperlink ref="U446" r:id="rId909"/>
-    <hyperlink ref="T447" r:id="rId910"/>
-    <hyperlink ref="U447" r:id="rId911"/>
-    <hyperlink ref="T448" r:id="rId912"/>
-    <hyperlink ref="U448" r:id="rId913"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E2" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F2" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G2" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="H2" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="I2" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J2" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="K2" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="L2" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="M2" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="N2" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="O2" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="P2" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="Q2" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="R2" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="S2" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="T2" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="U2" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="T3" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="U3" r:id="rId23" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_01_001.json" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="T4" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="U4" r:id="rId25" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_01_002.json" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="T5" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="U5" r:id="rId27" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_01_003.json" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="T6" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="U6" r:id="rId29" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_01_004.json" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="T7" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="U7" r:id="rId31" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_01_005.json" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="T8" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="U8" r:id="rId33" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_01_006.json" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="T9" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="U9" r:id="rId35" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_01_007.json" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="T10" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="U10" r:id="rId37" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_01_008.json" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="T11" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="U11" r:id="rId39" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_01_009.json" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="T12" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="U12" r:id="rId41" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_01_010.json" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="T13" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="U13" r:id="rId43" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_01_011.json" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="T14" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="U14" r:id="rId45" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_001.json" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="T15" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="U15" r:id="rId47" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_002.json" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="T16" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="U16" r:id="rId49" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_003.json" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="T17" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="U17" r:id="rId51" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_004.json" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="T18" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="U18" r:id="rId53" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_005.json" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="T19" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="U19" r:id="rId55" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_006.json" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="T20" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="U20" r:id="rId57" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_007.json" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="T21" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="U21" r:id="rId59" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_008.json" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="T22" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="U22" r:id="rId61" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_009.json" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="T23" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="U23" r:id="rId63" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_010.json" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="T24" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="U24" r:id="rId65" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_011.json" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="T25" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="U25" r:id="rId67" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_012.json" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="T26" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="U26" r:id="rId69" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_013.json" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="T27" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="U27" r:id="rId71" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_014.json" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="T28" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="U28" r:id="rId73" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_015.json" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="T29" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="U29" r:id="rId75" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_016.json" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="T30" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="U30" r:id="rId77" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_017.json" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="T31" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="U31" r:id="rId79" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_018.json" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="T32" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="U32" r:id="rId81" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_019.json" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="T33" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="U33" r:id="rId83" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_020.json" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="T34" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="U34" r:id="rId85" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_021.json" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="T35" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="U35" r:id="rId87" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_022.json" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="T36" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="U36" r:id="rId89" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_023.json" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="T37" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="U37" r:id="rId91" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_024.json" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="T38" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="U38" r:id="rId93" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_025.json" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="T39" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="U39" r:id="rId95" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_026.json" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="T40" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="U40" r:id="rId97" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_027.json" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="T41" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="U41" r:id="rId99" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_028.json" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="T42" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="U42" r:id="rId101" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_029.json" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="T43" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="U43" r:id="rId103" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_030.json" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="T44" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="U44" r:id="rId105" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_031.json" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="T45" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="U45" r:id="rId107" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_032.json" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="T46" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="U46" r:id="rId109" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_033.json" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="T47" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="U47" r:id="rId111" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_034.json" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="T48" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="U48" r:id="rId113" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_035.json" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="T49" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="U49" r:id="rId115" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_036.json" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="T50" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="U50" r:id="rId117" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_037.json" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="T51" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="U51" r:id="rId119" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_038.json" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="T52" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="U52" r:id="rId121" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_039.json" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="T53" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="U53" r:id="rId123" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_040.json" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="T54" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="U54" r:id="rId125" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_041.json" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="T55" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="U55" r:id="rId127" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_042.json" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="T56" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="U56" r:id="rId129" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_043.json" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="T57" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="U57" r:id="rId131" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_044.json" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="T58" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="U58" r:id="rId133" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_045.json" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="T59" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="U59" r:id="rId135" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_046.json" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="T60" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="U60" r:id="rId137" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_047.json" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="T61" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="U61" r:id="rId139" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_048.json" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="T62" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="U62" r:id="rId141" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_049.json" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="T63" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="U63" r:id="rId143" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_050.json" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="T64" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="U64" r:id="rId145" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_001.json" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="T65" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="U65" r:id="rId147" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_002.json" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="T66" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="U66" r:id="rId149" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_003.json" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="T67" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="U67" r:id="rId151" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_004.json" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="T68" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="U68" r:id="rId153" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_005.json" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="T69" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="U69" r:id="rId155" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_006.json" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="T70" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="U70" r:id="rId157" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_007.json" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="T71" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="U71" r:id="rId159" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_008.json" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="T72" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="U72" r:id="rId161" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_009.json" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="T73" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="U73" r:id="rId163" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_010.json" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="T74" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="U74" r:id="rId165" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_011.json" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="T75" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="U75" r:id="rId167" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_012.json" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="T76" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="U76" r:id="rId169" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_013.json" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="T77" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="U77" r:id="rId171" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_014.json" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="T78" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="U78" r:id="rId173" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_015.json" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="T79" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="U79" r:id="rId175" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_016.json" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="T80" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="U80" r:id="rId177" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_017.json" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="T81" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="U81" r:id="rId179" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_018.json" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="T82" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="U82" r:id="rId181" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_019.json" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="T83" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="U83" r:id="rId183" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_020.json" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="T84" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="U84" r:id="rId185" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_021.json" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="T85" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="U85" r:id="rId187" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_022.json" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="T86" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="U86" r:id="rId189" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_023.json" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="T87" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="U87" r:id="rId191" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_024.json" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="T88" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="U88" r:id="rId193" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_025.json" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="T89" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="U89" r:id="rId195" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_026.json" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="T90" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="U90" r:id="rId197" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_027.json" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="T91" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="U91" r:id="rId199" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_028.json" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="T92" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="U92" r:id="rId201" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_029.json" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="T93" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="U93" r:id="rId203" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_030.json" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="T94" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="U94" r:id="rId205" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_031.json" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="T95" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="U95" r:id="rId207" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_032.json" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="T96" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="U96" r:id="rId209" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_033.json" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="T97" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="U97" r:id="rId211" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_034.json" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="T98" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="U98" r:id="rId213" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_035.json" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="T99" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="U99" r:id="rId215" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_036.json" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="T100" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="U100" r:id="rId217" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_037.json" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="T101" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="U101" r:id="rId219" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_038.json" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="T102" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="U102" r:id="rId221" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_039.json" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="T103" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="U103" r:id="rId223" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_040.json" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="T104" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="U104" r:id="rId225" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_041.json" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="T105" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="U105" r:id="rId227" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_042.json" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="T106" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="U106" r:id="rId229" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_001.json" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="T107" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="U107" r:id="rId231" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_002.json" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="T108" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="U108" r:id="rId233" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_003.json" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="T109" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="U109" r:id="rId235" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_004.json" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="T110" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="U110" r:id="rId237" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_005.json" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="T111" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="U111" r:id="rId239" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_006.json" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="T112" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="U112" r:id="rId241" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_007.json" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="T113" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="U113" r:id="rId243" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_008.json" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="T114" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="U114" r:id="rId245" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_009.json" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="T115" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="U115" r:id="rId247" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_010.json" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="T116" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="U116" r:id="rId249" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_011.json" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="T117" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="U117" r:id="rId251" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_012.json" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="T118" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="U118" r:id="rId253" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_013.json" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="T119" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="U119" r:id="rId255" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_014.json" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="T120" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="U120" r:id="rId257" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_015.json" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="T121" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="U121" r:id="rId259" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_016.json" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="T122" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="U122" r:id="rId261" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_017.json" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="T123" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="U123" r:id="rId263" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_018.json" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="T124" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="U124" r:id="rId265" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_019.json" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="T125" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="U125" r:id="rId267" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_020.json" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="T126" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="U126" r:id="rId269" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_021.json" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="T127" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="U127" r:id="rId271" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_022.json" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="T128" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="U128" r:id="rId273" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_023.json" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="T129" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="U129" r:id="rId275" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_024.json" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="T130" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="U130" r:id="rId277" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_025.json" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="T131" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="U131" r:id="rId279" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_026.json" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="T132" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="U132" r:id="rId281" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_027.json" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="T133" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="U133" r:id="rId283" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_028.json" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="T134" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="U134" r:id="rId285" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_029.json" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="T135" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="U135" r:id="rId287" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_030.json" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="T136" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="U136" r:id="rId289" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_031.json" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="T137" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="U137" r:id="rId291" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_032.json" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="T138" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="U138" r:id="rId293" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_033.json" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="T139" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="U139" r:id="rId295" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_034.json" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="T140" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="U140" r:id="rId297" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_035.json" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="T141" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="U141" r:id="rId299" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_036.json" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="T142" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="U142" r:id="rId301" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_037.json" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="T143" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="U143" r:id="rId303" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_038.json" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="T144" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="U144" r:id="rId305" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_039.json" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="T145" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="U145" r:id="rId307" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_040.json" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="T146" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="U146" r:id="rId309" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_041.json" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="T147" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="U147" r:id="rId311" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_042.json" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="T148" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="U148" r:id="rId313" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_043.json" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="T149" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="U149" r:id="rId315" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_044.json" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="T150" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="U150" r:id="rId317" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_045.json" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="T151" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="U151" r:id="rId319" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_046.json" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="T152" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="U152" r:id="rId321" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_047.json" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="T153" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="U153" r:id="rId323" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_048.json" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="T154" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="U154" r:id="rId325" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_049.json" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="T155" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="U155" r:id="rId327" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_001.json" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="T156" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="U156" r:id="rId329" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_002.json" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="T157" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="U157" r:id="rId331" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_003.json" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="T158" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="U158" r:id="rId333" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_004.json" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="T159" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="U159" r:id="rId335" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_005.json" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="T160" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="U160" r:id="rId337" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_006.json" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="T161" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="U161" r:id="rId339" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_007.json" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="T162" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="U162" r:id="rId341" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_008.json" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="T163" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="U163" r:id="rId343" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_009.json" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="T164" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="U164" r:id="rId345" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_010.json" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="T165" r:id="rId346" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="U165" r:id="rId347" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_011.json" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="T166" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="U166" r:id="rId349" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_012.json" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="T167" r:id="rId350" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="U167" r:id="rId351" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_013.json" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="T168" r:id="rId352" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="U168" r:id="rId353" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_014.json" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
+    <hyperlink ref="T169" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="U169" r:id="rId355" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_015.json" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="T170" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="U170" r:id="rId357" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_016.json" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
+    <hyperlink ref="T171" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="U171" r:id="rId359" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_017.json" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="T172" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="U172" r:id="rId361" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_018.json" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="T173" r:id="rId362" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="U173" r:id="rId363" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_019.json" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="T174" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="U174" r:id="rId365" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_020.json" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="T175" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
+    <hyperlink ref="U175" r:id="rId367" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_021.json" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="T176" r:id="rId368" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
+    <hyperlink ref="U176" r:id="rId369" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_022.json" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
+    <hyperlink ref="T177" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
+    <hyperlink ref="U177" r:id="rId371" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_023.json" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
+    <hyperlink ref="T178" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="U178" r:id="rId373" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_024.json" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
+    <hyperlink ref="T179" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
+    <hyperlink ref="U179" r:id="rId375" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_025.json" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
+    <hyperlink ref="T180" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
+    <hyperlink ref="U180" r:id="rId377" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_026.json" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
+    <hyperlink ref="T181" r:id="rId378" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
+    <hyperlink ref="U181" r:id="rId379" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_027.json" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
+    <hyperlink ref="T182" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
+    <hyperlink ref="U182" r:id="rId381" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_028.json" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
+    <hyperlink ref="T183" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
+    <hyperlink ref="U183" r:id="rId383" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_029.json" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
+    <hyperlink ref="T184" r:id="rId384" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
+    <hyperlink ref="U184" r:id="rId385" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_030.json" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
+    <hyperlink ref="T185" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
+    <hyperlink ref="U185" r:id="rId387" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_031.json" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
+    <hyperlink ref="T186" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
+    <hyperlink ref="U186" r:id="rId389" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_032.json" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
+    <hyperlink ref="T187" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
+    <hyperlink ref="U187" r:id="rId391" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_033.json" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
+    <hyperlink ref="T188" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
+    <hyperlink ref="U188" r:id="rId393" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_034.json" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="T189" r:id="rId394" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
+    <hyperlink ref="U189" r:id="rId395" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_035.json" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
+    <hyperlink ref="T190" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
+    <hyperlink ref="U190" r:id="rId397" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_036.json" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="T191" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
+    <hyperlink ref="U191" r:id="rId399" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_037.json" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="T192" r:id="rId400" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
+    <hyperlink ref="U192" r:id="rId401" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_038.json" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
+    <hyperlink ref="T193" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="U193" r:id="rId403" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_039.json" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
+    <hyperlink ref="T194" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
+    <hyperlink ref="U194" r:id="rId405" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_040.json" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
+    <hyperlink ref="T195" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
+    <hyperlink ref="U195" r:id="rId407" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_041.json" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
+    <hyperlink ref="T196" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
+    <hyperlink ref="U196" r:id="rId409" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_042.json" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
+    <hyperlink ref="T197" r:id="rId410" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
+    <hyperlink ref="U197" r:id="rId411" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_043.json" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
+    <hyperlink ref="T198" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
+    <hyperlink ref="U198" r:id="rId413" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_044.json" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
+    <hyperlink ref="T199" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
+    <hyperlink ref="U199" r:id="rId415" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_045.json" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
+    <hyperlink ref="T200" r:id="rId416" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
+    <hyperlink ref="U200" r:id="rId417" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_046.json" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
+    <hyperlink ref="T201" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
+    <hyperlink ref="U201" r:id="rId419" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_047.json" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
+    <hyperlink ref="T202" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
+    <hyperlink ref="U202" r:id="rId421" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_048.json" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
+    <hyperlink ref="T203" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
+    <hyperlink ref="U203" r:id="rId423" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_049.json" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
+    <hyperlink ref="T204" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
+    <hyperlink ref="U204" r:id="rId425" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_050.json" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
+    <hyperlink ref="T205" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
+    <hyperlink ref="U205" r:id="rId427" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_051.json" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
+    <hyperlink ref="T206" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
+    <hyperlink ref="U206" r:id="rId429" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_052.json" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
+    <hyperlink ref="T207" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
+    <hyperlink ref="U207" r:id="rId431" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_053.json" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
+    <hyperlink ref="T208" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
+    <hyperlink ref="U208" r:id="rId433" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_054.json" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
+    <hyperlink ref="T209" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
+    <hyperlink ref="U209" r:id="rId435" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_055.json" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
+    <hyperlink ref="T210" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
+    <hyperlink ref="U210" r:id="rId437" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_001.json" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
+    <hyperlink ref="T211" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
+    <hyperlink ref="U211" r:id="rId439" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_002.json" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
+    <hyperlink ref="T212" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
+    <hyperlink ref="U212" r:id="rId441" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_003.json" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
+    <hyperlink ref="T213" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
+    <hyperlink ref="U213" r:id="rId443" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_004.json" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
+    <hyperlink ref="T214" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
+    <hyperlink ref="U214" r:id="rId445" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_005.json" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
+    <hyperlink ref="T215" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
+    <hyperlink ref="U215" r:id="rId447" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_006.json" xr:uid="{00000000-0004-0000-0000-0000BE010000}"/>
+    <hyperlink ref="T216" r:id="rId448" xr:uid="{00000000-0004-0000-0000-0000BF010000}"/>
+    <hyperlink ref="U216" r:id="rId449" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_007.json" xr:uid="{00000000-0004-0000-0000-0000C0010000}"/>
+    <hyperlink ref="T217" r:id="rId450" xr:uid="{00000000-0004-0000-0000-0000C1010000}"/>
+    <hyperlink ref="U217" r:id="rId451" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_008.json" xr:uid="{00000000-0004-0000-0000-0000C2010000}"/>
+    <hyperlink ref="T218" r:id="rId452" xr:uid="{00000000-0004-0000-0000-0000C3010000}"/>
+    <hyperlink ref="U218" r:id="rId453" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_009.json" xr:uid="{00000000-0004-0000-0000-0000C4010000}"/>
+    <hyperlink ref="T219" r:id="rId454" xr:uid="{00000000-0004-0000-0000-0000C5010000}"/>
+    <hyperlink ref="U219" r:id="rId455" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_010.json" xr:uid="{00000000-0004-0000-0000-0000C6010000}"/>
+    <hyperlink ref="T220" r:id="rId456" xr:uid="{00000000-0004-0000-0000-0000C7010000}"/>
+    <hyperlink ref="U220" r:id="rId457" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_011.json" xr:uid="{00000000-0004-0000-0000-0000C8010000}"/>
+    <hyperlink ref="T221" r:id="rId458" xr:uid="{00000000-0004-0000-0000-0000C9010000}"/>
+    <hyperlink ref="U221" r:id="rId459" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_012.json" xr:uid="{00000000-0004-0000-0000-0000CA010000}"/>
+    <hyperlink ref="T222" r:id="rId460" xr:uid="{00000000-0004-0000-0000-0000CB010000}"/>
+    <hyperlink ref="U222" r:id="rId461" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_013.json" xr:uid="{00000000-0004-0000-0000-0000CC010000}"/>
+    <hyperlink ref="T223" r:id="rId462" xr:uid="{00000000-0004-0000-0000-0000CD010000}"/>
+    <hyperlink ref="U223" r:id="rId463" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_014.json" xr:uid="{00000000-0004-0000-0000-0000CE010000}"/>
+    <hyperlink ref="T224" r:id="rId464" xr:uid="{00000000-0004-0000-0000-0000CF010000}"/>
+    <hyperlink ref="U224" r:id="rId465" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_015.json" xr:uid="{00000000-0004-0000-0000-0000D0010000}"/>
+    <hyperlink ref="T225" r:id="rId466" xr:uid="{00000000-0004-0000-0000-0000D1010000}"/>
+    <hyperlink ref="U225" r:id="rId467" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_016.json" xr:uid="{00000000-0004-0000-0000-0000D2010000}"/>
+    <hyperlink ref="T226" r:id="rId468" xr:uid="{00000000-0004-0000-0000-0000D3010000}"/>
+    <hyperlink ref="U226" r:id="rId469" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_017.json" xr:uid="{00000000-0004-0000-0000-0000D4010000}"/>
+    <hyperlink ref="T227" r:id="rId470" xr:uid="{00000000-0004-0000-0000-0000D5010000}"/>
+    <hyperlink ref="U227" r:id="rId471" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_018.json" xr:uid="{00000000-0004-0000-0000-0000D6010000}"/>
+    <hyperlink ref="T228" r:id="rId472" xr:uid="{00000000-0004-0000-0000-0000D7010000}"/>
+    <hyperlink ref="U228" r:id="rId473" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_019.json" xr:uid="{00000000-0004-0000-0000-0000D8010000}"/>
+    <hyperlink ref="T229" r:id="rId474" xr:uid="{00000000-0004-0000-0000-0000D9010000}"/>
+    <hyperlink ref="U229" r:id="rId475" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_020.json" xr:uid="{00000000-0004-0000-0000-0000DA010000}"/>
+    <hyperlink ref="T230" r:id="rId476" xr:uid="{00000000-0004-0000-0000-0000DB010000}"/>
+    <hyperlink ref="U230" r:id="rId477" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_021.json" xr:uid="{00000000-0004-0000-0000-0000DC010000}"/>
+    <hyperlink ref="T231" r:id="rId478" xr:uid="{00000000-0004-0000-0000-0000DD010000}"/>
+    <hyperlink ref="U231" r:id="rId479" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_022.json" xr:uid="{00000000-0004-0000-0000-0000DE010000}"/>
+    <hyperlink ref="T232" r:id="rId480" xr:uid="{00000000-0004-0000-0000-0000DF010000}"/>
+    <hyperlink ref="U232" r:id="rId481" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_023.json" xr:uid="{00000000-0004-0000-0000-0000E0010000}"/>
+    <hyperlink ref="T233" r:id="rId482" xr:uid="{00000000-0004-0000-0000-0000E1010000}"/>
+    <hyperlink ref="U233" r:id="rId483" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_024.json" xr:uid="{00000000-0004-0000-0000-0000E2010000}"/>
+    <hyperlink ref="T234" r:id="rId484" xr:uid="{00000000-0004-0000-0000-0000E3010000}"/>
+    <hyperlink ref="U234" r:id="rId485" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_025.json" xr:uid="{00000000-0004-0000-0000-0000E4010000}"/>
+    <hyperlink ref="T235" r:id="rId486" xr:uid="{00000000-0004-0000-0000-0000E5010000}"/>
+    <hyperlink ref="U235" r:id="rId487" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_026.json" xr:uid="{00000000-0004-0000-0000-0000E6010000}"/>
+    <hyperlink ref="T236" r:id="rId488" xr:uid="{00000000-0004-0000-0000-0000E7010000}"/>
+    <hyperlink ref="U236" r:id="rId489" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_027.json" xr:uid="{00000000-0004-0000-0000-0000E8010000}"/>
+    <hyperlink ref="T237" r:id="rId490" xr:uid="{00000000-0004-0000-0000-0000E9010000}"/>
+    <hyperlink ref="U237" r:id="rId491" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_028.json" xr:uid="{00000000-0004-0000-0000-0000EA010000}"/>
+    <hyperlink ref="T238" r:id="rId492" xr:uid="{00000000-0004-0000-0000-0000EB010000}"/>
+    <hyperlink ref="U238" r:id="rId493" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_029.json" xr:uid="{00000000-0004-0000-0000-0000EC010000}"/>
+    <hyperlink ref="T239" r:id="rId494" xr:uid="{00000000-0004-0000-0000-0000ED010000}"/>
+    <hyperlink ref="U239" r:id="rId495" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_030.json" xr:uid="{00000000-0004-0000-0000-0000EE010000}"/>
+    <hyperlink ref="T240" r:id="rId496" xr:uid="{00000000-0004-0000-0000-0000EF010000}"/>
+    <hyperlink ref="U240" r:id="rId497" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_031.json" xr:uid="{00000000-0004-0000-0000-0000F0010000}"/>
+    <hyperlink ref="T241" r:id="rId498" xr:uid="{00000000-0004-0000-0000-0000F1010000}"/>
+    <hyperlink ref="U241" r:id="rId499" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_032.json" xr:uid="{00000000-0004-0000-0000-0000F2010000}"/>
+    <hyperlink ref="T242" r:id="rId500" xr:uid="{00000000-0004-0000-0000-0000F3010000}"/>
+    <hyperlink ref="U242" r:id="rId501" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_033.json" xr:uid="{00000000-0004-0000-0000-0000F4010000}"/>
+    <hyperlink ref="T243" r:id="rId502" xr:uid="{00000000-0004-0000-0000-0000F5010000}"/>
+    <hyperlink ref="U243" r:id="rId503" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_034.json" xr:uid="{00000000-0004-0000-0000-0000F6010000}"/>
+    <hyperlink ref="T244" r:id="rId504" xr:uid="{00000000-0004-0000-0000-0000F7010000}"/>
+    <hyperlink ref="U244" r:id="rId505" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_035.json" xr:uid="{00000000-0004-0000-0000-0000F8010000}"/>
+    <hyperlink ref="T245" r:id="rId506" xr:uid="{00000000-0004-0000-0000-0000F9010000}"/>
+    <hyperlink ref="U245" r:id="rId507" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_036.json" xr:uid="{00000000-0004-0000-0000-0000FA010000}"/>
+    <hyperlink ref="T246" r:id="rId508" xr:uid="{00000000-0004-0000-0000-0000FB010000}"/>
+    <hyperlink ref="U246" r:id="rId509" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_037.json" xr:uid="{00000000-0004-0000-0000-0000FC010000}"/>
+    <hyperlink ref="T247" r:id="rId510" xr:uid="{00000000-0004-0000-0000-0000FD010000}"/>
+    <hyperlink ref="U247" r:id="rId511" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_038.json" xr:uid="{00000000-0004-0000-0000-0000FE010000}"/>
+    <hyperlink ref="T248" r:id="rId512" xr:uid="{00000000-0004-0000-0000-0000FF010000}"/>
+    <hyperlink ref="U248" r:id="rId513" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_039.json" xr:uid="{00000000-0004-0000-0000-000000020000}"/>
+    <hyperlink ref="T249" r:id="rId514" xr:uid="{00000000-0004-0000-0000-000001020000}"/>
+    <hyperlink ref="U249" r:id="rId515" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_040.json" xr:uid="{00000000-0004-0000-0000-000002020000}"/>
+    <hyperlink ref="T250" r:id="rId516" xr:uid="{00000000-0004-0000-0000-000003020000}"/>
+    <hyperlink ref="U250" r:id="rId517" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_041.json" xr:uid="{00000000-0004-0000-0000-000004020000}"/>
+    <hyperlink ref="T251" r:id="rId518" xr:uid="{00000000-0004-0000-0000-000005020000}"/>
+    <hyperlink ref="U251" r:id="rId519" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_042.json" xr:uid="{00000000-0004-0000-0000-000006020000}"/>
+    <hyperlink ref="T252" r:id="rId520" xr:uid="{00000000-0004-0000-0000-000007020000}"/>
+    <hyperlink ref="U252" r:id="rId521" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_043.json" xr:uid="{00000000-0004-0000-0000-000008020000}"/>
+    <hyperlink ref="T253" r:id="rId522" xr:uid="{00000000-0004-0000-0000-000009020000}"/>
+    <hyperlink ref="U253" r:id="rId523" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_044.json" xr:uid="{00000000-0004-0000-0000-00000A020000}"/>
+    <hyperlink ref="T254" r:id="rId524" xr:uid="{00000000-0004-0000-0000-00000B020000}"/>
+    <hyperlink ref="U254" r:id="rId525" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_045.json" xr:uid="{00000000-0004-0000-0000-00000C020000}"/>
+    <hyperlink ref="T255" r:id="rId526" xr:uid="{00000000-0004-0000-0000-00000D020000}"/>
+    <hyperlink ref="U255" r:id="rId527" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_046.json" xr:uid="{00000000-0004-0000-0000-00000E020000}"/>
+    <hyperlink ref="T256" r:id="rId528" xr:uid="{00000000-0004-0000-0000-00000F020000}"/>
+    <hyperlink ref="U256" r:id="rId529" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_047.json" xr:uid="{00000000-0004-0000-0000-000010020000}"/>
+    <hyperlink ref="T257" r:id="rId530" xr:uid="{00000000-0004-0000-0000-000011020000}"/>
+    <hyperlink ref="U257" r:id="rId531" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_048.json" xr:uid="{00000000-0004-0000-0000-000012020000}"/>
+    <hyperlink ref="T258" r:id="rId532" xr:uid="{00000000-0004-0000-0000-000013020000}"/>
+    <hyperlink ref="U258" r:id="rId533" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_049.json" xr:uid="{00000000-0004-0000-0000-000014020000}"/>
+    <hyperlink ref="T259" r:id="rId534" xr:uid="{00000000-0004-0000-0000-000015020000}"/>
+    <hyperlink ref="U259" r:id="rId535" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_050.json" xr:uid="{00000000-0004-0000-0000-000016020000}"/>
+    <hyperlink ref="T260" r:id="rId536" xr:uid="{00000000-0004-0000-0000-000017020000}"/>
+    <hyperlink ref="U260" r:id="rId537" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_051.json" xr:uid="{00000000-0004-0000-0000-000018020000}"/>
+    <hyperlink ref="T261" r:id="rId538" xr:uid="{00000000-0004-0000-0000-000019020000}"/>
+    <hyperlink ref="U261" r:id="rId539" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_052.json" xr:uid="{00000000-0004-0000-0000-00001A020000}"/>
+    <hyperlink ref="T262" r:id="rId540" xr:uid="{00000000-0004-0000-0000-00001B020000}"/>
+    <hyperlink ref="U262" r:id="rId541" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_053.json" xr:uid="{00000000-0004-0000-0000-00001C020000}"/>
+    <hyperlink ref="T263" r:id="rId542" xr:uid="{00000000-0004-0000-0000-00001D020000}"/>
+    <hyperlink ref="U263" r:id="rId543" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_054.json" xr:uid="{00000000-0004-0000-0000-00001E020000}"/>
+    <hyperlink ref="T264" r:id="rId544" xr:uid="{00000000-0004-0000-0000-00001F020000}"/>
+    <hyperlink ref="U264" r:id="rId545" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_055.json" xr:uid="{00000000-0004-0000-0000-000020020000}"/>
+    <hyperlink ref="T265" r:id="rId546" xr:uid="{00000000-0004-0000-0000-000021020000}"/>
+    <hyperlink ref="U265" r:id="rId547" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_056.json" xr:uid="{00000000-0004-0000-0000-000022020000}"/>
+    <hyperlink ref="T266" r:id="rId548" xr:uid="{00000000-0004-0000-0000-000023020000}"/>
+    <hyperlink ref="U266" r:id="rId549" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_057.json" xr:uid="{00000000-0004-0000-0000-000024020000}"/>
+    <hyperlink ref="T267" r:id="rId550" xr:uid="{00000000-0004-0000-0000-000025020000}"/>
+    <hyperlink ref="U267" r:id="rId551" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_058.json" xr:uid="{00000000-0004-0000-0000-000026020000}"/>
+    <hyperlink ref="T268" r:id="rId552" xr:uid="{00000000-0004-0000-0000-000027020000}"/>
+    <hyperlink ref="U268" r:id="rId553" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_001.json" xr:uid="{00000000-0004-0000-0000-000028020000}"/>
+    <hyperlink ref="T269" r:id="rId554" xr:uid="{00000000-0004-0000-0000-000029020000}"/>
+    <hyperlink ref="U269" r:id="rId555" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_002.json" xr:uid="{00000000-0004-0000-0000-00002A020000}"/>
+    <hyperlink ref="T270" r:id="rId556" xr:uid="{00000000-0004-0000-0000-00002B020000}"/>
+    <hyperlink ref="U270" r:id="rId557" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_003.json" xr:uid="{00000000-0004-0000-0000-00002C020000}"/>
+    <hyperlink ref="T271" r:id="rId558" xr:uid="{00000000-0004-0000-0000-00002D020000}"/>
+    <hyperlink ref="U271" r:id="rId559" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_004.json" xr:uid="{00000000-0004-0000-0000-00002E020000}"/>
+    <hyperlink ref="T272" r:id="rId560" xr:uid="{00000000-0004-0000-0000-00002F020000}"/>
+    <hyperlink ref="U272" r:id="rId561" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_005.json" xr:uid="{00000000-0004-0000-0000-000030020000}"/>
+    <hyperlink ref="T273" r:id="rId562" xr:uid="{00000000-0004-0000-0000-000031020000}"/>
+    <hyperlink ref="U273" r:id="rId563" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_006.json" xr:uid="{00000000-0004-0000-0000-000032020000}"/>
+    <hyperlink ref="T274" r:id="rId564" xr:uid="{00000000-0004-0000-0000-000033020000}"/>
+    <hyperlink ref="U274" r:id="rId565" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_007.json" xr:uid="{00000000-0004-0000-0000-000034020000}"/>
+    <hyperlink ref="T275" r:id="rId566" xr:uid="{00000000-0004-0000-0000-000035020000}"/>
+    <hyperlink ref="U275" r:id="rId567" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_008.json" xr:uid="{00000000-0004-0000-0000-000036020000}"/>
+    <hyperlink ref="T276" r:id="rId568" xr:uid="{00000000-0004-0000-0000-000037020000}"/>
+    <hyperlink ref="U276" r:id="rId569" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_009.json" xr:uid="{00000000-0004-0000-0000-000038020000}"/>
+    <hyperlink ref="T277" r:id="rId570" xr:uid="{00000000-0004-0000-0000-000039020000}"/>
+    <hyperlink ref="U277" r:id="rId571" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_010.json" xr:uid="{00000000-0004-0000-0000-00003A020000}"/>
+    <hyperlink ref="T278" r:id="rId572" xr:uid="{00000000-0004-0000-0000-00003B020000}"/>
+    <hyperlink ref="U278" r:id="rId573" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_011.json" xr:uid="{00000000-0004-0000-0000-00003C020000}"/>
+    <hyperlink ref="T279" r:id="rId574" xr:uid="{00000000-0004-0000-0000-00003D020000}"/>
+    <hyperlink ref="U279" r:id="rId575" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_012.json" xr:uid="{00000000-0004-0000-0000-00003E020000}"/>
+    <hyperlink ref="T280" r:id="rId576" xr:uid="{00000000-0004-0000-0000-00003F020000}"/>
+    <hyperlink ref="U280" r:id="rId577" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_013.json" xr:uid="{00000000-0004-0000-0000-000040020000}"/>
+    <hyperlink ref="T281" r:id="rId578" xr:uid="{00000000-0004-0000-0000-000041020000}"/>
+    <hyperlink ref="U281" r:id="rId579" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_014.json" xr:uid="{00000000-0004-0000-0000-000042020000}"/>
+    <hyperlink ref="T282" r:id="rId580" xr:uid="{00000000-0004-0000-0000-000043020000}"/>
+    <hyperlink ref="U282" r:id="rId581" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_015.json" xr:uid="{00000000-0004-0000-0000-000044020000}"/>
+    <hyperlink ref="T283" r:id="rId582" xr:uid="{00000000-0004-0000-0000-000045020000}"/>
+    <hyperlink ref="U283" r:id="rId583" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_016.json" xr:uid="{00000000-0004-0000-0000-000046020000}"/>
+    <hyperlink ref="T284" r:id="rId584" xr:uid="{00000000-0004-0000-0000-000047020000}"/>
+    <hyperlink ref="U284" r:id="rId585" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_017.json" xr:uid="{00000000-0004-0000-0000-000048020000}"/>
+    <hyperlink ref="T285" r:id="rId586" xr:uid="{00000000-0004-0000-0000-000049020000}"/>
+    <hyperlink ref="U285" r:id="rId587" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_018.json" xr:uid="{00000000-0004-0000-0000-00004A020000}"/>
+    <hyperlink ref="T286" r:id="rId588" xr:uid="{00000000-0004-0000-0000-00004B020000}"/>
+    <hyperlink ref="U286" r:id="rId589" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_019.json" xr:uid="{00000000-0004-0000-0000-00004C020000}"/>
+    <hyperlink ref="T287" r:id="rId590" xr:uid="{00000000-0004-0000-0000-00004D020000}"/>
+    <hyperlink ref="U287" r:id="rId591" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_020.json" xr:uid="{00000000-0004-0000-0000-00004E020000}"/>
+    <hyperlink ref="T288" r:id="rId592" xr:uid="{00000000-0004-0000-0000-00004F020000}"/>
+    <hyperlink ref="U288" r:id="rId593" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_021.json" xr:uid="{00000000-0004-0000-0000-000050020000}"/>
+    <hyperlink ref="T289" r:id="rId594" xr:uid="{00000000-0004-0000-0000-000051020000}"/>
+    <hyperlink ref="U289" r:id="rId595" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_022.json" xr:uid="{00000000-0004-0000-0000-000052020000}"/>
+    <hyperlink ref="T290" r:id="rId596" xr:uid="{00000000-0004-0000-0000-000053020000}"/>
+    <hyperlink ref="U290" r:id="rId597" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_023.json" xr:uid="{00000000-0004-0000-0000-000054020000}"/>
+    <hyperlink ref="T291" r:id="rId598" xr:uid="{00000000-0004-0000-0000-000055020000}"/>
+    <hyperlink ref="U291" r:id="rId599" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_024.json" xr:uid="{00000000-0004-0000-0000-000056020000}"/>
+    <hyperlink ref="T292" r:id="rId600" xr:uid="{00000000-0004-0000-0000-000057020000}"/>
+    <hyperlink ref="U292" r:id="rId601" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_025.json" xr:uid="{00000000-0004-0000-0000-000058020000}"/>
+    <hyperlink ref="T293" r:id="rId602" xr:uid="{00000000-0004-0000-0000-000059020000}"/>
+    <hyperlink ref="U293" r:id="rId603" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_026.json" xr:uid="{00000000-0004-0000-0000-00005A020000}"/>
+    <hyperlink ref="T294" r:id="rId604" xr:uid="{00000000-0004-0000-0000-00005B020000}"/>
+    <hyperlink ref="U294" r:id="rId605" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_027.json" xr:uid="{00000000-0004-0000-0000-00005C020000}"/>
+    <hyperlink ref="T295" r:id="rId606" xr:uid="{00000000-0004-0000-0000-00005D020000}"/>
+    <hyperlink ref="U295" r:id="rId607" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_028.json" xr:uid="{00000000-0004-0000-0000-00005E020000}"/>
+    <hyperlink ref="T296" r:id="rId608" xr:uid="{00000000-0004-0000-0000-00005F020000}"/>
+    <hyperlink ref="U296" r:id="rId609" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_029.json" xr:uid="{00000000-0004-0000-0000-000060020000}"/>
+    <hyperlink ref="T297" r:id="rId610" xr:uid="{00000000-0004-0000-0000-000061020000}"/>
+    <hyperlink ref="U297" r:id="rId611" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_030.json" xr:uid="{00000000-0004-0000-0000-000062020000}"/>
+    <hyperlink ref="T298" r:id="rId612" xr:uid="{00000000-0004-0000-0000-000063020000}"/>
+    <hyperlink ref="U298" r:id="rId613" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_031.json" xr:uid="{00000000-0004-0000-0000-000064020000}"/>
+    <hyperlink ref="T299" r:id="rId614" xr:uid="{00000000-0004-0000-0000-000065020000}"/>
+    <hyperlink ref="U299" r:id="rId615" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_032.json" xr:uid="{00000000-0004-0000-0000-000066020000}"/>
+    <hyperlink ref="T300" r:id="rId616" xr:uid="{00000000-0004-0000-0000-000067020000}"/>
+    <hyperlink ref="U300" r:id="rId617" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_033.json" xr:uid="{00000000-0004-0000-0000-000068020000}"/>
+    <hyperlink ref="T301" r:id="rId618" xr:uid="{00000000-0004-0000-0000-000069020000}"/>
+    <hyperlink ref="U301" r:id="rId619" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_034.json" xr:uid="{00000000-0004-0000-0000-00006A020000}"/>
+    <hyperlink ref="T302" r:id="rId620" xr:uid="{00000000-0004-0000-0000-00006B020000}"/>
+    <hyperlink ref="U302" r:id="rId621" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_035.json" xr:uid="{00000000-0004-0000-0000-00006C020000}"/>
+    <hyperlink ref="T303" r:id="rId622" xr:uid="{00000000-0004-0000-0000-00006D020000}"/>
+    <hyperlink ref="U303" r:id="rId623" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_036.json" xr:uid="{00000000-0004-0000-0000-00006E020000}"/>
+    <hyperlink ref="T304" r:id="rId624" xr:uid="{00000000-0004-0000-0000-00006F020000}"/>
+    <hyperlink ref="U304" r:id="rId625" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_037.json" xr:uid="{00000000-0004-0000-0000-000070020000}"/>
+    <hyperlink ref="T305" r:id="rId626" xr:uid="{00000000-0004-0000-0000-000071020000}"/>
+    <hyperlink ref="U305" r:id="rId627" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_038.json" xr:uid="{00000000-0004-0000-0000-000072020000}"/>
+    <hyperlink ref="T306" r:id="rId628" xr:uid="{00000000-0004-0000-0000-000073020000}"/>
+    <hyperlink ref="U306" r:id="rId629" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_039.json" xr:uid="{00000000-0004-0000-0000-000074020000}"/>
+    <hyperlink ref="T307" r:id="rId630" xr:uid="{00000000-0004-0000-0000-000075020000}"/>
+    <hyperlink ref="U307" r:id="rId631" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_040.json" xr:uid="{00000000-0004-0000-0000-000076020000}"/>
+    <hyperlink ref="T308" r:id="rId632" xr:uid="{00000000-0004-0000-0000-000077020000}"/>
+    <hyperlink ref="U308" r:id="rId633" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_041.json" xr:uid="{00000000-0004-0000-0000-000078020000}"/>
+    <hyperlink ref="T309" r:id="rId634" xr:uid="{00000000-0004-0000-0000-000079020000}"/>
+    <hyperlink ref="U309" r:id="rId635" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_042.json" xr:uid="{00000000-0004-0000-0000-00007A020000}"/>
+    <hyperlink ref="T310" r:id="rId636" xr:uid="{00000000-0004-0000-0000-00007B020000}"/>
+    <hyperlink ref="U310" r:id="rId637" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_043.json" xr:uid="{00000000-0004-0000-0000-00007C020000}"/>
+    <hyperlink ref="T311" r:id="rId638" xr:uid="{00000000-0004-0000-0000-00007D020000}"/>
+    <hyperlink ref="U311" r:id="rId639" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_044.json" xr:uid="{00000000-0004-0000-0000-00007E020000}"/>
+    <hyperlink ref="T312" r:id="rId640" xr:uid="{00000000-0004-0000-0000-00007F020000}"/>
+    <hyperlink ref="U312" r:id="rId641" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_045.json" xr:uid="{00000000-0004-0000-0000-000080020000}"/>
+    <hyperlink ref="T313" r:id="rId642" xr:uid="{00000000-0004-0000-0000-000081020000}"/>
+    <hyperlink ref="U313" r:id="rId643" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_046.json" xr:uid="{00000000-0004-0000-0000-000082020000}"/>
+    <hyperlink ref="T314" r:id="rId644" xr:uid="{00000000-0004-0000-0000-000083020000}"/>
+    <hyperlink ref="U314" r:id="rId645" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_047.json" xr:uid="{00000000-0004-0000-0000-000084020000}"/>
+    <hyperlink ref="T315" r:id="rId646" xr:uid="{00000000-0004-0000-0000-000085020000}"/>
+    <hyperlink ref="U315" r:id="rId647" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_048.json" xr:uid="{00000000-0004-0000-0000-000086020000}"/>
+    <hyperlink ref="T316" r:id="rId648" xr:uid="{00000000-0004-0000-0000-000087020000}"/>
+    <hyperlink ref="U316" r:id="rId649" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_049.json" xr:uid="{00000000-0004-0000-0000-000088020000}"/>
+    <hyperlink ref="T317" r:id="rId650" xr:uid="{00000000-0004-0000-0000-000089020000}"/>
+    <hyperlink ref="U317" r:id="rId651" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_050.json" xr:uid="{00000000-0004-0000-0000-00008A020000}"/>
+    <hyperlink ref="T318" r:id="rId652" xr:uid="{00000000-0004-0000-0000-00008B020000}"/>
+    <hyperlink ref="U318" r:id="rId653" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_051.json" xr:uid="{00000000-0004-0000-0000-00008C020000}"/>
+    <hyperlink ref="T319" r:id="rId654" xr:uid="{00000000-0004-0000-0000-00008D020000}"/>
+    <hyperlink ref="U319" r:id="rId655" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_052.json" xr:uid="{00000000-0004-0000-0000-00008E020000}"/>
+    <hyperlink ref="T320" r:id="rId656" xr:uid="{00000000-0004-0000-0000-00008F020000}"/>
+    <hyperlink ref="U320" r:id="rId657" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_053.json" xr:uid="{00000000-0004-0000-0000-000090020000}"/>
+    <hyperlink ref="T321" r:id="rId658" xr:uid="{00000000-0004-0000-0000-000091020000}"/>
+    <hyperlink ref="U321" r:id="rId659" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_054.json" xr:uid="{00000000-0004-0000-0000-000092020000}"/>
+    <hyperlink ref="T322" r:id="rId660" xr:uid="{00000000-0004-0000-0000-000093020000}"/>
+    <hyperlink ref="U322" r:id="rId661" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_001.json" xr:uid="{00000000-0004-0000-0000-000094020000}"/>
+    <hyperlink ref="T323" r:id="rId662" xr:uid="{00000000-0004-0000-0000-000095020000}"/>
+    <hyperlink ref="U323" r:id="rId663" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_002.json" xr:uid="{00000000-0004-0000-0000-000096020000}"/>
+    <hyperlink ref="T324" r:id="rId664" xr:uid="{00000000-0004-0000-0000-000097020000}"/>
+    <hyperlink ref="U324" r:id="rId665" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_003.json" xr:uid="{00000000-0004-0000-0000-000098020000}"/>
+    <hyperlink ref="T325" r:id="rId666" xr:uid="{00000000-0004-0000-0000-000099020000}"/>
+    <hyperlink ref="U325" r:id="rId667" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_004.json" xr:uid="{00000000-0004-0000-0000-00009A020000}"/>
+    <hyperlink ref="T326" r:id="rId668" xr:uid="{00000000-0004-0000-0000-00009B020000}"/>
+    <hyperlink ref="U326" r:id="rId669" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_005.json" xr:uid="{00000000-0004-0000-0000-00009C020000}"/>
+    <hyperlink ref="T327" r:id="rId670" xr:uid="{00000000-0004-0000-0000-00009D020000}"/>
+    <hyperlink ref="U327" r:id="rId671" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_006.json" xr:uid="{00000000-0004-0000-0000-00009E020000}"/>
+    <hyperlink ref="T328" r:id="rId672" xr:uid="{00000000-0004-0000-0000-00009F020000}"/>
+    <hyperlink ref="U328" r:id="rId673" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_007.json" xr:uid="{00000000-0004-0000-0000-0000A0020000}"/>
+    <hyperlink ref="T329" r:id="rId674" xr:uid="{00000000-0004-0000-0000-0000A1020000}"/>
+    <hyperlink ref="U329" r:id="rId675" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_008.json" xr:uid="{00000000-0004-0000-0000-0000A2020000}"/>
+    <hyperlink ref="T330" r:id="rId676" xr:uid="{00000000-0004-0000-0000-0000A3020000}"/>
+    <hyperlink ref="U330" r:id="rId677" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_009.json" xr:uid="{00000000-0004-0000-0000-0000A4020000}"/>
+    <hyperlink ref="T331" r:id="rId678" xr:uid="{00000000-0004-0000-0000-0000A5020000}"/>
+    <hyperlink ref="U331" r:id="rId679" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_010.json" xr:uid="{00000000-0004-0000-0000-0000A6020000}"/>
+    <hyperlink ref="T332" r:id="rId680" xr:uid="{00000000-0004-0000-0000-0000A7020000}"/>
+    <hyperlink ref="U332" r:id="rId681" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_011.json" xr:uid="{00000000-0004-0000-0000-0000A8020000}"/>
+    <hyperlink ref="T333" r:id="rId682" xr:uid="{00000000-0004-0000-0000-0000A9020000}"/>
+    <hyperlink ref="U333" r:id="rId683" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_012.json" xr:uid="{00000000-0004-0000-0000-0000AA020000}"/>
+    <hyperlink ref="T334" r:id="rId684" xr:uid="{00000000-0004-0000-0000-0000AB020000}"/>
+    <hyperlink ref="U334" r:id="rId685" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_013.json" xr:uid="{00000000-0004-0000-0000-0000AC020000}"/>
+    <hyperlink ref="T335" r:id="rId686" xr:uid="{00000000-0004-0000-0000-0000AD020000}"/>
+    <hyperlink ref="U335" r:id="rId687" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_014.json" xr:uid="{00000000-0004-0000-0000-0000AE020000}"/>
+    <hyperlink ref="T336" r:id="rId688" xr:uid="{00000000-0004-0000-0000-0000AF020000}"/>
+    <hyperlink ref="U336" r:id="rId689" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_015.json" xr:uid="{00000000-0004-0000-0000-0000B0020000}"/>
+    <hyperlink ref="T337" r:id="rId690" xr:uid="{00000000-0004-0000-0000-0000B1020000}"/>
+    <hyperlink ref="U337" r:id="rId691" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_016.json" xr:uid="{00000000-0004-0000-0000-0000B2020000}"/>
+    <hyperlink ref="T338" r:id="rId692" xr:uid="{00000000-0004-0000-0000-0000B3020000}"/>
+    <hyperlink ref="U338" r:id="rId693" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_017.json" xr:uid="{00000000-0004-0000-0000-0000B4020000}"/>
+    <hyperlink ref="T339" r:id="rId694" xr:uid="{00000000-0004-0000-0000-0000B5020000}"/>
+    <hyperlink ref="U339" r:id="rId695" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_018.json" xr:uid="{00000000-0004-0000-0000-0000B6020000}"/>
+    <hyperlink ref="T340" r:id="rId696" xr:uid="{00000000-0004-0000-0000-0000B7020000}"/>
+    <hyperlink ref="U340" r:id="rId697" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_019.json" xr:uid="{00000000-0004-0000-0000-0000B8020000}"/>
+    <hyperlink ref="T341" r:id="rId698" xr:uid="{00000000-0004-0000-0000-0000B9020000}"/>
+    <hyperlink ref="U341" r:id="rId699" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_020.json" xr:uid="{00000000-0004-0000-0000-0000BA020000}"/>
+    <hyperlink ref="T342" r:id="rId700" xr:uid="{00000000-0004-0000-0000-0000BB020000}"/>
+    <hyperlink ref="U342" r:id="rId701" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_021.json" xr:uid="{00000000-0004-0000-0000-0000BC020000}"/>
+    <hyperlink ref="T343" r:id="rId702" xr:uid="{00000000-0004-0000-0000-0000BD020000}"/>
+    <hyperlink ref="U343" r:id="rId703" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_022.json" xr:uid="{00000000-0004-0000-0000-0000BE020000}"/>
+    <hyperlink ref="T344" r:id="rId704" xr:uid="{00000000-0004-0000-0000-0000BF020000}"/>
+    <hyperlink ref="U344" r:id="rId705" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_023.json" xr:uid="{00000000-0004-0000-0000-0000C0020000}"/>
+    <hyperlink ref="T345" r:id="rId706" xr:uid="{00000000-0004-0000-0000-0000C1020000}"/>
+    <hyperlink ref="U345" r:id="rId707" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_024.json" xr:uid="{00000000-0004-0000-0000-0000C2020000}"/>
+    <hyperlink ref="T346" r:id="rId708" xr:uid="{00000000-0004-0000-0000-0000C3020000}"/>
+    <hyperlink ref="U346" r:id="rId709" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_025.json" xr:uid="{00000000-0004-0000-0000-0000C4020000}"/>
+    <hyperlink ref="T347" r:id="rId710" xr:uid="{00000000-0004-0000-0000-0000C5020000}"/>
+    <hyperlink ref="U347" r:id="rId711" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_026.json" xr:uid="{00000000-0004-0000-0000-0000C6020000}"/>
+    <hyperlink ref="T348" r:id="rId712" xr:uid="{00000000-0004-0000-0000-0000C7020000}"/>
+    <hyperlink ref="U348" r:id="rId713" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_027.json" xr:uid="{00000000-0004-0000-0000-0000C8020000}"/>
+    <hyperlink ref="T349" r:id="rId714" xr:uid="{00000000-0004-0000-0000-0000C9020000}"/>
+    <hyperlink ref="U349" r:id="rId715" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_028.json" xr:uid="{00000000-0004-0000-0000-0000CA020000}"/>
+    <hyperlink ref="T350" r:id="rId716" xr:uid="{00000000-0004-0000-0000-0000CB020000}"/>
+    <hyperlink ref="U350" r:id="rId717" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_029.json" xr:uid="{00000000-0004-0000-0000-0000CC020000}"/>
+    <hyperlink ref="T351" r:id="rId718" xr:uid="{00000000-0004-0000-0000-0000CD020000}"/>
+    <hyperlink ref="U351" r:id="rId719" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_030.json" xr:uid="{00000000-0004-0000-0000-0000CE020000}"/>
+    <hyperlink ref="T352" r:id="rId720" xr:uid="{00000000-0004-0000-0000-0000CF020000}"/>
+    <hyperlink ref="U352" r:id="rId721" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_031.json" xr:uid="{00000000-0004-0000-0000-0000D0020000}"/>
+    <hyperlink ref="T353" r:id="rId722" xr:uid="{00000000-0004-0000-0000-0000D1020000}"/>
+    <hyperlink ref="U353" r:id="rId723" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_032.json" xr:uid="{00000000-0004-0000-0000-0000D2020000}"/>
+    <hyperlink ref="T354" r:id="rId724" xr:uid="{00000000-0004-0000-0000-0000D3020000}"/>
+    <hyperlink ref="U354" r:id="rId725" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_033.json" xr:uid="{00000000-0004-0000-0000-0000D4020000}"/>
+    <hyperlink ref="T355" r:id="rId726" xr:uid="{00000000-0004-0000-0000-0000D5020000}"/>
+    <hyperlink ref="U355" r:id="rId727" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_034.json" xr:uid="{00000000-0004-0000-0000-0000D6020000}"/>
+    <hyperlink ref="T356" r:id="rId728" xr:uid="{00000000-0004-0000-0000-0000D7020000}"/>
+    <hyperlink ref="U356" r:id="rId729" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_035.json" xr:uid="{00000000-0004-0000-0000-0000D8020000}"/>
+    <hyperlink ref="T357" r:id="rId730" xr:uid="{00000000-0004-0000-0000-0000D9020000}"/>
+    <hyperlink ref="U357" r:id="rId731" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_036.json" xr:uid="{00000000-0004-0000-0000-0000DA020000}"/>
+    <hyperlink ref="T358" r:id="rId732" xr:uid="{00000000-0004-0000-0000-0000DB020000}"/>
+    <hyperlink ref="U358" r:id="rId733" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_037.json" xr:uid="{00000000-0004-0000-0000-0000DC020000}"/>
+    <hyperlink ref="T359" r:id="rId734" xr:uid="{00000000-0004-0000-0000-0000DD020000}"/>
+    <hyperlink ref="U359" r:id="rId735" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_038.json" xr:uid="{00000000-0004-0000-0000-0000DE020000}"/>
+    <hyperlink ref="T360" r:id="rId736" xr:uid="{00000000-0004-0000-0000-0000DF020000}"/>
+    <hyperlink ref="U360" r:id="rId737" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_039.json" xr:uid="{00000000-0004-0000-0000-0000E0020000}"/>
+    <hyperlink ref="T361" r:id="rId738" xr:uid="{00000000-0004-0000-0000-0000E1020000}"/>
+    <hyperlink ref="U361" r:id="rId739" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_040.json" xr:uid="{00000000-0004-0000-0000-0000E2020000}"/>
+    <hyperlink ref="T362" r:id="rId740" xr:uid="{00000000-0004-0000-0000-0000E3020000}"/>
+    <hyperlink ref="U362" r:id="rId741" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_041.json" xr:uid="{00000000-0004-0000-0000-0000E4020000}"/>
+    <hyperlink ref="T363" r:id="rId742" xr:uid="{00000000-0004-0000-0000-0000E5020000}"/>
+    <hyperlink ref="U363" r:id="rId743" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_042.json" xr:uid="{00000000-0004-0000-0000-0000E6020000}"/>
+    <hyperlink ref="T364" r:id="rId744" xr:uid="{00000000-0004-0000-0000-0000E7020000}"/>
+    <hyperlink ref="U364" r:id="rId745" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_043.json" xr:uid="{00000000-0004-0000-0000-0000E8020000}"/>
+    <hyperlink ref="T365" r:id="rId746" xr:uid="{00000000-0004-0000-0000-0000E9020000}"/>
+    <hyperlink ref="U365" r:id="rId747" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_044.json" xr:uid="{00000000-0004-0000-0000-0000EA020000}"/>
+    <hyperlink ref="T366" r:id="rId748" xr:uid="{00000000-0004-0000-0000-0000EB020000}"/>
+    <hyperlink ref="U366" r:id="rId749" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_045.json" xr:uid="{00000000-0004-0000-0000-0000EC020000}"/>
+    <hyperlink ref="T367" r:id="rId750" xr:uid="{00000000-0004-0000-0000-0000ED020000}"/>
+    <hyperlink ref="U367" r:id="rId751" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_046.json" xr:uid="{00000000-0004-0000-0000-0000EE020000}"/>
+    <hyperlink ref="T368" r:id="rId752" xr:uid="{00000000-0004-0000-0000-0000EF020000}"/>
+    <hyperlink ref="U368" r:id="rId753" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_001.json" xr:uid="{00000000-0004-0000-0000-0000F0020000}"/>
+    <hyperlink ref="T369" r:id="rId754" xr:uid="{00000000-0004-0000-0000-0000F1020000}"/>
+    <hyperlink ref="U369" r:id="rId755" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_002.json" xr:uid="{00000000-0004-0000-0000-0000F2020000}"/>
+    <hyperlink ref="T370" r:id="rId756" xr:uid="{00000000-0004-0000-0000-0000F3020000}"/>
+    <hyperlink ref="U370" r:id="rId757" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_003.json" xr:uid="{00000000-0004-0000-0000-0000F4020000}"/>
+    <hyperlink ref="T371" r:id="rId758" xr:uid="{00000000-0004-0000-0000-0000F5020000}"/>
+    <hyperlink ref="U371" r:id="rId759" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_004.json" xr:uid="{00000000-0004-0000-0000-0000F6020000}"/>
+    <hyperlink ref="T372" r:id="rId760" xr:uid="{00000000-0004-0000-0000-0000F7020000}"/>
+    <hyperlink ref="U372" r:id="rId761" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_005.json" xr:uid="{00000000-0004-0000-0000-0000F8020000}"/>
+    <hyperlink ref="T373" r:id="rId762" xr:uid="{00000000-0004-0000-0000-0000F9020000}"/>
+    <hyperlink ref="U373" r:id="rId763" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_006.json" xr:uid="{00000000-0004-0000-0000-0000FA020000}"/>
+    <hyperlink ref="T374" r:id="rId764" xr:uid="{00000000-0004-0000-0000-0000FB020000}"/>
+    <hyperlink ref="U374" r:id="rId765" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_007.json" xr:uid="{00000000-0004-0000-0000-0000FC020000}"/>
+    <hyperlink ref="T375" r:id="rId766" xr:uid="{00000000-0004-0000-0000-0000FD020000}"/>
+    <hyperlink ref="U375" r:id="rId767" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_008.json" xr:uid="{00000000-0004-0000-0000-0000FE020000}"/>
+    <hyperlink ref="T376" r:id="rId768" xr:uid="{00000000-0004-0000-0000-0000FF020000}"/>
+    <hyperlink ref="U376" r:id="rId769" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_009.json" xr:uid="{00000000-0004-0000-0000-000000030000}"/>
+    <hyperlink ref="T377" r:id="rId770" xr:uid="{00000000-0004-0000-0000-000001030000}"/>
+    <hyperlink ref="U377" r:id="rId771" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_010.json" xr:uid="{00000000-0004-0000-0000-000002030000}"/>
+    <hyperlink ref="T378" r:id="rId772" xr:uid="{00000000-0004-0000-0000-000003030000}"/>
+    <hyperlink ref="U378" r:id="rId773" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_011.json" xr:uid="{00000000-0004-0000-0000-000004030000}"/>
+    <hyperlink ref="T379" r:id="rId774" xr:uid="{00000000-0004-0000-0000-000005030000}"/>
+    <hyperlink ref="U379" r:id="rId775" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_012.json" xr:uid="{00000000-0004-0000-0000-000006030000}"/>
+    <hyperlink ref="T380" r:id="rId776" xr:uid="{00000000-0004-0000-0000-000007030000}"/>
+    <hyperlink ref="U380" r:id="rId777" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_013.json" xr:uid="{00000000-0004-0000-0000-000008030000}"/>
+    <hyperlink ref="T381" r:id="rId778" xr:uid="{00000000-0004-0000-0000-000009030000}"/>
+    <hyperlink ref="U381" r:id="rId779" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_014.json" xr:uid="{00000000-0004-0000-0000-00000A030000}"/>
+    <hyperlink ref="T382" r:id="rId780" xr:uid="{00000000-0004-0000-0000-00000B030000}"/>
+    <hyperlink ref="U382" r:id="rId781" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_015.json" xr:uid="{00000000-0004-0000-0000-00000C030000}"/>
+    <hyperlink ref="T383" r:id="rId782" xr:uid="{00000000-0004-0000-0000-00000D030000}"/>
+    <hyperlink ref="U383" r:id="rId783" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_016.json" xr:uid="{00000000-0004-0000-0000-00000E030000}"/>
+    <hyperlink ref="T384" r:id="rId784" xr:uid="{00000000-0004-0000-0000-00000F030000}"/>
+    <hyperlink ref="U384" r:id="rId785" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_017.json" xr:uid="{00000000-0004-0000-0000-000010030000}"/>
+    <hyperlink ref="T385" r:id="rId786" xr:uid="{00000000-0004-0000-0000-000011030000}"/>
+    <hyperlink ref="U385" r:id="rId787" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_018.json" xr:uid="{00000000-0004-0000-0000-000012030000}"/>
+    <hyperlink ref="T386" r:id="rId788" xr:uid="{00000000-0004-0000-0000-000013030000}"/>
+    <hyperlink ref="U386" r:id="rId789" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_019.json" xr:uid="{00000000-0004-0000-0000-000014030000}"/>
+    <hyperlink ref="T387" r:id="rId790" xr:uid="{00000000-0004-0000-0000-000015030000}"/>
+    <hyperlink ref="U387" r:id="rId791" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_020.json" xr:uid="{00000000-0004-0000-0000-000016030000}"/>
+    <hyperlink ref="T388" r:id="rId792" xr:uid="{00000000-0004-0000-0000-000017030000}"/>
+    <hyperlink ref="U388" r:id="rId793" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_021.json" xr:uid="{00000000-0004-0000-0000-000018030000}"/>
+    <hyperlink ref="T389" r:id="rId794" xr:uid="{00000000-0004-0000-0000-000019030000}"/>
+    <hyperlink ref="U389" r:id="rId795" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_022.json" xr:uid="{00000000-0004-0000-0000-00001A030000}"/>
+    <hyperlink ref="T390" r:id="rId796" xr:uid="{00000000-0004-0000-0000-00001B030000}"/>
+    <hyperlink ref="U390" r:id="rId797" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_023.json" xr:uid="{00000000-0004-0000-0000-00001C030000}"/>
+    <hyperlink ref="T391" r:id="rId798" xr:uid="{00000000-0004-0000-0000-00001D030000}"/>
+    <hyperlink ref="U391" r:id="rId799" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_024.json" xr:uid="{00000000-0004-0000-0000-00001E030000}"/>
+    <hyperlink ref="T392" r:id="rId800" xr:uid="{00000000-0004-0000-0000-00001F030000}"/>
+    <hyperlink ref="U392" r:id="rId801" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_025.json" xr:uid="{00000000-0004-0000-0000-000020030000}"/>
+    <hyperlink ref="T393" r:id="rId802" xr:uid="{00000000-0004-0000-0000-000021030000}"/>
+    <hyperlink ref="U393" r:id="rId803" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_026.json" xr:uid="{00000000-0004-0000-0000-000022030000}"/>
+    <hyperlink ref="T394" r:id="rId804" xr:uid="{00000000-0004-0000-0000-000023030000}"/>
+    <hyperlink ref="U394" r:id="rId805" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_027.json" xr:uid="{00000000-0004-0000-0000-000024030000}"/>
+    <hyperlink ref="T395" r:id="rId806" xr:uid="{00000000-0004-0000-0000-000025030000}"/>
+    <hyperlink ref="U395" r:id="rId807" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_028.json" xr:uid="{00000000-0004-0000-0000-000026030000}"/>
+    <hyperlink ref="T396" r:id="rId808" xr:uid="{00000000-0004-0000-0000-000027030000}"/>
+    <hyperlink ref="U396" r:id="rId809" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_029.json" xr:uid="{00000000-0004-0000-0000-000028030000}"/>
+    <hyperlink ref="T397" r:id="rId810" xr:uid="{00000000-0004-0000-0000-000029030000}"/>
+    <hyperlink ref="U397" r:id="rId811" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_030.json" xr:uid="{00000000-0004-0000-0000-00002A030000}"/>
+    <hyperlink ref="T398" r:id="rId812" xr:uid="{00000000-0004-0000-0000-00002B030000}"/>
+    <hyperlink ref="U398" r:id="rId813" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_031.json" xr:uid="{00000000-0004-0000-0000-00002C030000}"/>
+    <hyperlink ref="T399" r:id="rId814" xr:uid="{00000000-0004-0000-0000-00002D030000}"/>
+    <hyperlink ref="U399" r:id="rId815" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_032.json" xr:uid="{00000000-0004-0000-0000-00002E030000}"/>
+    <hyperlink ref="T400" r:id="rId816" xr:uid="{00000000-0004-0000-0000-00002F030000}"/>
+    <hyperlink ref="U400" r:id="rId817" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_033.json" xr:uid="{00000000-0004-0000-0000-000030030000}"/>
+    <hyperlink ref="T401" r:id="rId818" xr:uid="{00000000-0004-0000-0000-000031030000}"/>
+    <hyperlink ref="U401" r:id="rId819" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_034.json" xr:uid="{00000000-0004-0000-0000-000032030000}"/>
+    <hyperlink ref="T402" r:id="rId820" xr:uid="{00000000-0004-0000-0000-000033030000}"/>
+    <hyperlink ref="U402" r:id="rId821" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_035.json" xr:uid="{00000000-0004-0000-0000-000034030000}"/>
+    <hyperlink ref="T403" r:id="rId822" xr:uid="{00000000-0004-0000-0000-000035030000}"/>
+    <hyperlink ref="U403" r:id="rId823" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_036.json" xr:uid="{00000000-0004-0000-0000-000036030000}"/>
+    <hyperlink ref="T404" r:id="rId824" xr:uid="{00000000-0004-0000-0000-000037030000}"/>
+    <hyperlink ref="U404" r:id="rId825" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_037.json" xr:uid="{00000000-0004-0000-0000-000038030000}"/>
+    <hyperlink ref="T405" r:id="rId826" xr:uid="{00000000-0004-0000-0000-000039030000}"/>
+    <hyperlink ref="U405" r:id="rId827" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_038.json" xr:uid="{00000000-0004-0000-0000-00003A030000}"/>
+    <hyperlink ref="T406" r:id="rId828" xr:uid="{00000000-0004-0000-0000-00003B030000}"/>
+    <hyperlink ref="U406" r:id="rId829" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_039.json" xr:uid="{00000000-0004-0000-0000-00003C030000}"/>
+    <hyperlink ref="T407" r:id="rId830" xr:uid="{00000000-0004-0000-0000-00003D030000}"/>
+    <hyperlink ref="U407" r:id="rId831" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_001.json" xr:uid="{00000000-0004-0000-0000-00003E030000}"/>
+    <hyperlink ref="T408" r:id="rId832" xr:uid="{00000000-0004-0000-0000-00003F030000}"/>
+    <hyperlink ref="U408" r:id="rId833" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_002.json" xr:uid="{00000000-0004-0000-0000-000040030000}"/>
+    <hyperlink ref="T409" r:id="rId834" xr:uid="{00000000-0004-0000-0000-000041030000}"/>
+    <hyperlink ref="U409" r:id="rId835" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_003.json" xr:uid="{00000000-0004-0000-0000-000042030000}"/>
+    <hyperlink ref="T410" r:id="rId836" xr:uid="{00000000-0004-0000-0000-000043030000}"/>
+    <hyperlink ref="U410" r:id="rId837" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_004.json" xr:uid="{00000000-0004-0000-0000-000044030000}"/>
+    <hyperlink ref="T411" r:id="rId838" xr:uid="{00000000-0004-0000-0000-000045030000}"/>
+    <hyperlink ref="U411" r:id="rId839" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_005.json" xr:uid="{00000000-0004-0000-0000-000046030000}"/>
+    <hyperlink ref="T412" r:id="rId840" xr:uid="{00000000-0004-0000-0000-000047030000}"/>
+    <hyperlink ref="U412" r:id="rId841" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_006.json" xr:uid="{00000000-0004-0000-0000-000048030000}"/>
+    <hyperlink ref="T413" r:id="rId842" xr:uid="{00000000-0004-0000-0000-000049030000}"/>
+    <hyperlink ref="U413" r:id="rId843" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_007.json" xr:uid="{00000000-0004-0000-0000-00004A030000}"/>
+    <hyperlink ref="T414" r:id="rId844" xr:uid="{00000000-0004-0000-0000-00004B030000}"/>
+    <hyperlink ref="U414" r:id="rId845" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_008.json" xr:uid="{00000000-0004-0000-0000-00004C030000}"/>
+    <hyperlink ref="T415" r:id="rId846" xr:uid="{00000000-0004-0000-0000-00004D030000}"/>
+    <hyperlink ref="U415" r:id="rId847" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_009.json" xr:uid="{00000000-0004-0000-0000-00004E030000}"/>
+    <hyperlink ref="T416" r:id="rId848" xr:uid="{00000000-0004-0000-0000-00004F030000}"/>
+    <hyperlink ref="U416" r:id="rId849" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_010.json" xr:uid="{00000000-0004-0000-0000-000050030000}"/>
+    <hyperlink ref="T417" r:id="rId850" xr:uid="{00000000-0004-0000-0000-000051030000}"/>
+    <hyperlink ref="U417" r:id="rId851" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_011.json" xr:uid="{00000000-0004-0000-0000-000052030000}"/>
+    <hyperlink ref="T418" r:id="rId852" xr:uid="{00000000-0004-0000-0000-000053030000}"/>
+    <hyperlink ref="U418" r:id="rId853" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_012.json" xr:uid="{00000000-0004-0000-0000-000054030000}"/>
+    <hyperlink ref="T419" r:id="rId854" xr:uid="{00000000-0004-0000-0000-000055030000}"/>
+    <hyperlink ref="U419" r:id="rId855" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_013.json" xr:uid="{00000000-0004-0000-0000-000056030000}"/>
+    <hyperlink ref="T420" r:id="rId856" xr:uid="{00000000-0004-0000-0000-000057030000}"/>
+    <hyperlink ref="U420" r:id="rId857" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_014.json" xr:uid="{00000000-0004-0000-0000-000058030000}"/>
+    <hyperlink ref="T421" r:id="rId858" xr:uid="{00000000-0004-0000-0000-000059030000}"/>
+    <hyperlink ref="U421" r:id="rId859" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_015.json" xr:uid="{00000000-0004-0000-0000-00005A030000}"/>
+    <hyperlink ref="T422" r:id="rId860" xr:uid="{00000000-0004-0000-0000-00005B030000}"/>
+    <hyperlink ref="U422" r:id="rId861" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_016.json" xr:uid="{00000000-0004-0000-0000-00005C030000}"/>
+    <hyperlink ref="T423" r:id="rId862" xr:uid="{00000000-0004-0000-0000-00005D030000}"/>
+    <hyperlink ref="U423" r:id="rId863" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_017.json" xr:uid="{00000000-0004-0000-0000-00005E030000}"/>
+    <hyperlink ref="T424" r:id="rId864" xr:uid="{00000000-0004-0000-0000-00005F030000}"/>
+    <hyperlink ref="U424" r:id="rId865" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_018.json" xr:uid="{00000000-0004-0000-0000-000060030000}"/>
+    <hyperlink ref="T425" r:id="rId866" xr:uid="{00000000-0004-0000-0000-000061030000}"/>
+    <hyperlink ref="U425" r:id="rId867" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_019.json" xr:uid="{00000000-0004-0000-0000-000062030000}"/>
+    <hyperlink ref="T426" r:id="rId868" xr:uid="{00000000-0004-0000-0000-000063030000}"/>
+    <hyperlink ref="U426" r:id="rId869" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_020.json" xr:uid="{00000000-0004-0000-0000-000064030000}"/>
+    <hyperlink ref="T427" r:id="rId870" xr:uid="{00000000-0004-0000-0000-000065030000}"/>
+    <hyperlink ref="U427" r:id="rId871" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_021.json" xr:uid="{00000000-0004-0000-0000-000066030000}"/>
+    <hyperlink ref="T428" r:id="rId872" xr:uid="{00000000-0004-0000-0000-000067030000}"/>
+    <hyperlink ref="U428" r:id="rId873" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_022.json" xr:uid="{00000000-0004-0000-0000-000068030000}"/>
+    <hyperlink ref="T429" r:id="rId874" xr:uid="{00000000-0004-0000-0000-000069030000}"/>
+    <hyperlink ref="U429" r:id="rId875" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_023.json" xr:uid="{00000000-0004-0000-0000-00006A030000}"/>
+    <hyperlink ref="T430" r:id="rId876" xr:uid="{00000000-0004-0000-0000-00006B030000}"/>
+    <hyperlink ref="U430" r:id="rId877" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_024.json" xr:uid="{00000000-0004-0000-0000-00006C030000}"/>
+    <hyperlink ref="T431" r:id="rId878" xr:uid="{00000000-0004-0000-0000-00006D030000}"/>
+    <hyperlink ref="U431" r:id="rId879" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_025.json" xr:uid="{00000000-0004-0000-0000-00006E030000}"/>
+    <hyperlink ref="T432" r:id="rId880" xr:uid="{00000000-0004-0000-0000-00006F030000}"/>
+    <hyperlink ref="U432" r:id="rId881" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_026.json" xr:uid="{00000000-0004-0000-0000-000070030000}"/>
+    <hyperlink ref="T433" r:id="rId882" xr:uid="{00000000-0004-0000-0000-000071030000}"/>
+    <hyperlink ref="U433" r:id="rId883" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_027.json" xr:uid="{00000000-0004-0000-0000-000072030000}"/>
+    <hyperlink ref="T434" r:id="rId884" xr:uid="{00000000-0004-0000-0000-000073030000}"/>
+    <hyperlink ref="U434" r:id="rId885" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_028.json" xr:uid="{00000000-0004-0000-0000-000074030000}"/>
+    <hyperlink ref="T435" r:id="rId886" xr:uid="{00000000-0004-0000-0000-000075030000}"/>
+    <hyperlink ref="U435" r:id="rId887" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_029.json" xr:uid="{00000000-0004-0000-0000-000076030000}"/>
+    <hyperlink ref="T436" r:id="rId888" xr:uid="{00000000-0004-0000-0000-000077030000}"/>
+    <hyperlink ref="U436" r:id="rId889" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_030.json" xr:uid="{00000000-0004-0000-0000-000078030000}"/>
+    <hyperlink ref="T437" r:id="rId890" xr:uid="{00000000-0004-0000-0000-000079030000}"/>
+    <hyperlink ref="U437" r:id="rId891" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_031.json" xr:uid="{00000000-0004-0000-0000-00007A030000}"/>
+    <hyperlink ref="T438" r:id="rId892" xr:uid="{00000000-0004-0000-0000-00007B030000}"/>
+    <hyperlink ref="U438" r:id="rId893" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_032.json" xr:uid="{00000000-0004-0000-0000-00007C030000}"/>
+    <hyperlink ref="T439" r:id="rId894" xr:uid="{00000000-0004-0000-0000-00007D030000}"/>
+    <hyperlink ref="U439" r:id="rId895" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_033.json" xr:uid="{00000000-0004-0000-0000-00007E030000}"/>
+    <hyperlink ref="T440" r:id="rId896" xr:uid="{00000000-0004-0000-0000-00007F030000}"/>
+    <hyperlink ref="U440" r:id="rId897" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_034.json" xr:uid="{00000000-0004-0000-0000-000080030000}"/>
+    <hyperlink ref="T441" r:id="rId898" xr:uid="{00000000-0004-0000-0000-000081030000}"/>
+    <hyperlink ref="U441" r:id="rId899" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_035.json" xr:uid="{00000000-0004-0000-0000-000082030000}"/>
+    <hyperlink ref="T442" r:id="rId900" xr:uid="{00000000-0004-0000-0000-000083030000}"/>
+    <hyperlink ref="U442" r:id="rId901" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_036.json" xr:uid="{00000000-0004-0000-0000-000084030000}"/>
+    <hyperlink ref="T443" r:id="rId902" xr:uid="{00000000-0004-0000-0000-000085030000}"/>
+    <hyperlink ref="U443" r:id="rId903" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_037.json" xr:uid="{00000000-0004-0000-0000-000086030000}"/>
+    <hyperlink ref="T444" r:id="rId904" xr:uid="{00000000-0004-0000-0000-000087030000}"/>
+    <hyperlink ref="U444" r:id="rId905" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_038.json" xr:uid="{00000000-0004-0000-0000-000088030000}"/>
+    <hyperlink ref="T445" r:id="rId906" xr:uid="{00000000-0004-0000-0000-000089030000}"/>
+    <hyperlink ref="U445" r:id="rId907" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_039.json" xr:uid="{00000000-0004-0000-0000-00008A030000}"/>
+    <hyperlink ref="T446" r:id="rId908" xr:uid="{00000000-0004-0000-0000-00008B030000}"/>
+    <hyperlink ref="U446" r:id="rId909" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_040.json" xr:uid="{00000000-0004-0000-0000-00008C030000}"/>
+    <hyperlink ref="T447" r:id="rId910" xr:uid="{00000000-0004-0000-0000-00008D030000}"/>
+    <hyperlink ref="U447" r:id="rId911" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_041.json" xr:uid="{00000000-0004-0000-0000-00008E030000}"/>
+    <hyperlink ref="T448" r:id="rId912" xr:uid="{00000000-0004-0000-0000-00008F030000}"/>
+    <hyperlink ref="U448" r:id="rId913" display="https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_042.json" xr:uid="{00000000-0004-0000-0000-000090030000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
